--- a/data/compatibility/openEuler24.03-LTS上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler24.03-LTS上两类平台板卡兼容清单.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w30059182\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE0753C-122B-4271-9666-A046F7F4EBC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler24.03-LTS两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
     <sheet name="板卡问题记录" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler24.03-LTS两类平台板卡兼容性'!$A$1:$Q$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler24.03-LTS两类平台板卡兼容性'!$A$1:$Q$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="362">
   <si>
     <t>vendorID</t>
   </si>
@@ -983,6 +990,105 @@
     <t>01a4</t>
   </si>
   <si>
+    <t>00ac</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>2024.05.30</t>
+  </si>
+  <si>
+    <t>9400-16i</t>
+  </si>
+  <si>
+    <t>SAS3416</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>1f24</t>
+  </si>
+  <si>
+    <t>200b</t>
+  </si>
+  <si>
+    <t>2024.05.22</t>
+  </si>
+  <si>
+    <t>e1f3605698df19887d2a8dfaee5bd342a65add35c86c461ebed18b0badd7018c</t>
+  </si>
+  <si>
+    <t>127K</t>
+  </si>
+  <si>
+    <t>XC310</t>
+  </si>
+  <si>
+    <t>10e2</t>
+  </si>
+  <si>
+    <t>4010</t>
+  </si>
+  <si>
+    <t>2024.05.23</t>
+  </si>
+  <si>
+    <t>6e74b40255b7e8d821b8ba02df3e3df3a2048454023d83474a91338199fe73e3</t>
+  </si>
+  <si>
+    <t>9560-8i</t>
+  </si>
+  <si>
+    <t>SAS39xx</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>2024.05.16</t>
+  </si>
+  <si>
+    <t>GE350-T2</t>
+  </si>
+  <si>
+    <t>15ff</t>
+  </si>
+  <si>
+    <t>193d</t>
+  </si>
+  <si>
+    <t>2024.05.21</t>
+  </si>
+  <si>
+    <t>12ac3044dd47c8b768dd614efc7abd5145cd13d9659a57ece182a78c6d8f0b64</t>
+  </si>
+  <si>
+    <t>248K</t>
+  </si>
+  <si>
+    <t>X710</t>
+  </si>
+  <si>
+    <t>101d</t>
+  </si>
+  <si>
+    <t>2024.05.20</t>
+  </si>
+  <si>
+    <t>38236f2305079dee19c3f8e2912946934e85301ce78aa7a210d154fa2e0da737</t>
+  </si>
+  <si>
+    <t>695K</t>
+  </si>
+  <si>
+    <t>MCX623106AN-CDAT</t>
+  </si>
+  <si>
+    <t>ConnectX-6 Dx</t>
+  </si>
+  <si>
     <t>板卡</t>
   </si>
   <si>
@@ -1011,165 +1117,19 @@
   </si>
   <si>
     <t>存储服务器连接失败</t>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>00ac</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.05.30</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>9400-16i</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAS3416</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>8086</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1521</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1f24</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>200b</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>x86_64</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>openEuler 24.03 LTS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>igb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.6.0-23.0.0.26.oe2403.x86_64</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>NIC</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.05.22</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>e1f3605698df19887d2a8dfaee5bd342a65add35c86c461ebed18b0badd7018c</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>127K</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intel</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>XC310</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>I350</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>inbox</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10e2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4010</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>megaraid_sas</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>07.725.01.00-rc1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.05.23</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>6e74b40255b7e8d821b8ba02df3e3df3a2048454023d83474a91338199fe73e3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>95K</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Broadcom</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>9560-8i</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAS39xx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ffff</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.05.16</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GE350-T2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1178,12 +1138,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1214,20 +1168,149 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1276,8 +1359,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1328,10 +1597,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1349,26 +1857,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="53">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="53" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1406,8 +1914,8 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1421,9 +1929,18 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1432,63 +1949,99 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="常规 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="常规 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2 2" xfId="50"/>
+    <cellStyle name="常规 3" xfId="51"/>
+    <cellStyle name="常规 3 2" xfId="52"/>
+    <cellStyle name="常规 4" xfId="53"/>
+    <cellStyle name="常规 5" xfId="54"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1561,9 +2114,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1821,20 +2371,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AMJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q74" sqref="Q74"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" style="15" customWidth="1"/>
     <col min="2" max="2" width="4.625" style="16" customWidth="1"/>
@@ -1857,7 +2408,7 @@
     <col min="19" max="1024" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" s="7" customFormat="1" ht="40.5" spans="1:18">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1913,7 +2464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="8" customFormat="1" spans="1:17">
       <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
@@ -1953,10 +2504,10 @@
       <c r="M2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="37" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="23" t="s">
@@ -1966,7 +2517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" s="15" t="s">
         <v>19</v>
       </c>
@@ -2016,7 +2567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4" s="15" t="s">
         <v>34</v>
       </c>
@@ -2069,7 +2620,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
@@ -2122,7 +2673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6" s="15" t="s">
         <v>46</v>
       </c>
@@ -2175,7 +2726,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7" s="15" t="s">
         <v>61</v>
       </c>
@@ -2228,7 +2779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8" s="15" t="s">
         <v>61</v>
       </c>
@@ -2281,7 +2832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9" s="15" t="s">
         <v>76</v>
       </c>
@@ -2334,7 +2885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10" s="15" t="s">
         <v>88</v>
       </c>
@@ -2387,7 +2938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11" s="15" t="s">
         <v>88</v>
       </c>
@@ -2440,7 +2991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
@@ -2493,7 +3044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -2546,7 +3097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -2599,7 +3150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="A15" s="15" t="s">
         <v>61</v>
       </c>
@@ -2652,7 +3203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="A16" s="15" t="s">
         <v>34</v>
       </c>
@@ -2705,7 +3256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17" s="15" t="s">
         <v>34</v>
       </c>
@@ -2758,7 +3309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18" s="15" t="s">
         <v>129</v>
       </c>
@@ -2811,7 +3362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17">
       <c r="A19" s="15" t="s">
         <v>140</v>
       </c>
@@ -2842,10 +3393,10 @@
       <c r="J19" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="L19" s="36" t="s">
+      <c r="L19" s="25" t="s">
         <v>148</v>
       </c>
       <c r="M19" s="14" t="s">
@@ -2857,11 +3408,11 @@
       <c r="O19" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="Q19" s="43" t="s">
+      <c r="Q19" s="48" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" s="9" customFormat="1" spans="1:1024">
       <c r="A20" s="14" t="s">
         <v>129</v>
       </c>
@@ -2914,9 +3465,9 @@
         <v>33</v>
       </c>
       <c r="R20" s="14"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
@@ -3921,7 +4472,7 @@
       <c r="AMI20" s="12"/>
       <c r="AMJ20" s="12"/>
     </row>
-    <row r="21" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" s="9" customFormat="1" spans="1:1024">
       <c r="A21" s="14" t="s">
         <v>129</v>
       </c>
@@ -3974,9 +4525,9 @@
         <v>33</v>
       </c>
       <c r="R21" s="14"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -4981,7 +5532,7 @@
       <c r="AMI21" s="12"/>
       <c r="AMJ21" s="12"/>
     </row>
-    <row r="22" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" s="9" customFormat="1" spans="1:1024">
       <c r="A22" s="24" t="s">
         <v>140</v>
       </c>
@@ -5030,13 +5581,13 @@
       <c r="P22" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" s="44" t="s">
+      <c r="Q22" s="49" t="s">
         <v>152</v>
       </c>
       <c r="R22" s="14"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
@@ -6041,7 +6592,7 @@
       <c r="AMI22" s="12"/>
       <c r="AMJ22" s="12"/>
     </row>
-    <row r="23" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" s="9" customFormat="1" spans="1:1024">
       <c r="A23" s="14" t="s">
         <v>129</v>
       </c>
@@ -7101,7 +7652,7 @@
       <c r="AMI23" s="12"/>
       <c r="AMJ23" s="12"/>
     </row>
-    <row r="24" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" s="9" customFormat="1" spans="1:1024">
       <c r="A24" s="14" t="s">
         <v>129</v>
       </c>
@@ -8161,7 +8712,7 @@
       <c r="AMI24" s="12"/>
       <c r="AMJ24" s="12"/>
     </row>
-    <row r="25" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" s="10" customFormat="1" spans="1:17">
       <c r="A25" s="10">
         <v>1000</v>
       </c>
@@ -8214,7 +8765,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" s="11" customFormat="1" spans="1:17">
       <c r="A26" s="27">
         <v>1000</v>
       </c>
@@ -8260,14 +8811,14 @@
       <c r="O26" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="P26" s="37" t="s">
+      <c r="P26" s="39" t="s">
         <v>128</v>
       </c>
       <c r="Q26" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:1024" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" s="12" customFormat="1" spans="1:17">
       <c r="A27" s="10">
         <v>1000</v>
       </c>
@@ -8320,7 +8871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:1024" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" s="12" customFormat="1" spans="1:17">
       <c r="A28" s="10">
         <v>1000</v>
       </c>
@@ -8373,7 +8924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" s="9" customFormat="1" spans="1:1024">
       <c r="A29" s="14" t="s">
         <v>129</v>
       </c>
@@ -8413,16 +8964,16 @@
       <c r="M29" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="N29" s="38" t="s">
+      <c r="N29" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="O29" s="38" t="s">
+      <c r="O29" s="40" t="s">
         <v>199</v>
       </c>
       <c r="P29" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="Q29" s="44" t="s">
+      <c r="Q29" s="49" t="s">
         <v>201</v>
       </c>
       <c r="R29" s="14"/>
@@ -9433,7 +9984,7 @@
       <c r="AMI29" s="14"/>
       <c r="AMJ29" s="14"/>
     </row>
-    <row r="30" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" s="9" customFormat="1" spans="1:1024">
       <c r="A30" s="14" t="s">
         <v>129</v>
       </c>
@@ -9473,16 +10024,16 @@
       <c r="M30" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="N30" s="38" t="s">
+      <c r="N30" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="O30" s="38" t="s">
+      <c r="O30" s="40" t="s">
         <v>199</v>
       </c>
       <c r="P30" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="Q30" s="44" t="s">
+      <c r="Q30" s="49" t="s">
         <v>201</v>
       </c>
       <c r="R30" s="14"/>
@@ -10493,7 +11044,7 @@
       <c r="AMI30" s="14"/>
       <c r="AMJ30" s="14"/>
     </row>
-    <row r="31" spans="1:1024" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" s="13" customFormat="1" spans="1:1024">
       <c r="A31" s="13" t="s">
         <v>202</v>
       </c>
@@ -10527,7 +11078,7 @@
       <c r="K31" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="L31" s="39" t="s">
+      <c r="L31" s="41" t="s">
         <v>208</v>
       </c>
       <c r="M31" s="13" t="s">
@@ -10536,7 +11087,7 @@
       <c r="N31" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="O31" s="40" t="s">
+      <c r="O31" s="42" t="s">
         <v>211</v>
       </c>
       <c r="P31" s="26" t="s">
@@ -11553,7 +12104,7 @@
       <c r="AMI31" s="14"/>
       <c r="AMJ31" s="14"/>
     </row>
-    <row r="32" spans="1:1024" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" s="13" customFormat="1" spans="1:1024">
       <c r="A32" s="13" t="s">
         <v>202</v>
       </c>
@@ -11587,7 +12138,7 @@
       <c r="K32" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="L32" s="39" t="s">
+      <c r="L32" s="41" t="s">
         <v>214</v>
       </c>
       <c r="M32" s="13" t="s">
@@ -11596,7 +12147,7 @@
       <c r="N32" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="O32" s="40" t="s">
+      <c r="O32" s="42" t="s">
         <v>211</v>
       </c>
       <c r="P32" s="26" t="s">
@@ -12613,7 +13164,7 @@
       <c r="AMI32" s="14"/>
       <c r="AMJ32" s="14"/>
     </row>
-    <row r="33" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" s="14" customFormat="1" spans="1:17">
       <c r="A33" s="14" t="s">
         <v>88</v>
       </c>
@@ -12656,17 +13207,17 @@
       <c r="N33" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O33" s="40" t="s">
+      <c r="O33" s="42" t="s">
         <v>218</v>
       </c>
       <c r="P33" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="Q33" s="40" t="s">
+      <c r="Q33" s="42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1024" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" s="14" customFormat="1" spans="1:17">
       <c r="A34" s="14" t="s">
         <v>88</v>
       </c>
@@ -12700,7 +13251,7 @@
       <c r="K34" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="L34" s="41" t="s">
+      <c r="L34" s="43" t="s">
         <v>99</v>
       </c>
       <c r="M34" s="14" t="s">
@@ -12709,17 +13260,17 @@
       <c r="N34" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="O34" s="40" t="s">
+      <c r="O34" s="42" t="s">
         <v>218</v>
       </c>
       <c r="P34" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="Q34" s="40" t="s">
+      <c r="Q34" s="42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" s="9" customFormat="1" spans="1:1024">
       <c r="A35" s="14" t="s">
         <v>140</v>
       </c>
@@ -12762,13 +13313,13 @@
       <c r="N35" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O35" s="40" t="s">
+      <c r="O35" s="42" t="s">
         <v>223</v>
       </c>
       <c r="P35" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="Q35" s="44" t="s">
+      <c r="Q35" s="49" t="s">
         <v>152</v>
       </c>
       <c r="R35" s="14"/>
@@ -13779,7 +14330,7 @@
       <c r="AMI35" s="14"/>
       <c r="AMJ35" s="14"/>
     </row>
-    <row r="36" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" s="9" customFormat="1" spans="1:1024">
       <c r="A36" s="10">
         <v>1000</v>
       </c>
@@ -13816,19 +14367,19 @@
       <c r="L36" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="M36" s="48" t="s">
+      <c r="M36" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="N36" s="42" t="s">
+      <c r="N36" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="42" t="s">
+      <c r="O36" s="45" t="s">
         <v>44</v>
       </c>
       <c r="P36" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q36" s="40" t="s">
+      <c r="Q36" s="42" t="s">
         <v>33</v>
       </c>
       <c r="R36" s="12"/>
@@ -14839,7 +15390,7 @@
       <c r="AMI36" s="12"/>
       <c r="AMJ36" s="12"/>
     </row>
-    <row r="37" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17">
       <c r="A37" s="7" t="s">
         <v>19</v>
       </c>
@@ -14890,7 +15441,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17">
       <c r="A38" s="7" t="s">
         <v>88</v>
       </c>
@@ -14936,14 +15487,14 @@
       <c r="O38" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P38" s="49" t="s">
+      <c r="P38" s="46" t="s">
         <v>231</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17">
       <c r="A39" s="7" t="s">
         <v>88</v>
       </c>
@@ -14996,7 +15547,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17">
       <c r="A40" s="7" t="s">
         <v>34</v>
       </c>
@@ -15049,7 +15600,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17">
       <c r="A41" s="7" t="s">
         <v>34</v>
       </c>
@@ -15102,7 +15653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17">
       <c r="A42" s="7" t="s">
         <v>34</v>
       </c>
@@ -15155,7 +15706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17">
       <c r="A43" s="7" t="s">
         <v>76</v>
       </c>
@@ -15208,7 +15759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17">
       <c r="A44" s="7" t="s">
         <v>244</v>
       </c>
@@ -15245,7 +15796,7 @@
       <c r="L44" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="M44" s="50" t="s">
+      <c r="M44" s="47" t="s">
         <v>252</v>
       </c>
       <c r="N44" s="7" t="s">
@@ -15261,7 +15812,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17">
       <c r="A45" s="7" t="s">
         <v>244</v>
       </c>
@@ -15298,7 +15849,7 @@
       <c r="L45" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M45" s="50" t="s">
+      <c r="M45" s="47" t="s">
         <v>252</v>
       </c>
       <c r="N45" s="7" t="s">
@@ -15314,7 +15865,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17">
       <c r="A46" s="7" t="s">
         <v>258</v>
       </c>
@@ -15365,7 +15916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17">
       <c r="A47" s="7" t="s">
         <v>258</v>
       </c>
@@ -15381,10 +15932,10 @@
       <c r="E47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="33" t="s">
         <v>261</v>
       </c>
       <c r="H47" s="7" t="s">
@@ -15416,7 +15967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17">
       <c r="A48" s="7" t="s">
         <v>258</v>
       </c>
@@ -15467,7 +16018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17">
       <c r="A49" s="7" t="s">
         <v>258</v>
       </c>
@@ -15483,10 +16034,10 @@
       <c r="E49" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="45" t="s">
+      <c r="F49" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="45" t="s">
+      <c r="G49" s="33" t="s">
         <v>261</v>
       </c>
       <c r="H49" s="7" t="s">
@@ -15518,7 +16069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17">
       <c r="A50" s="7" t="s">
         <v>258</v>
       </c>
@@ -15569,7 +16120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17">
       <c r="A51" s="7" t="s">
         <v>258</v>
       </c>
@@ -15620,7 +16171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:17">
       <c r="A52" s="7" t="s">
         <v>258</v>
       </c>
@@ -15671,7 +16222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17">
       <c r="A53" s="7" t="s">
         <v>258</v>
       </c>
@@ -15687,13 +16238,13 @@
       <c r="E53" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="45" t="s">
+      <c r="F53" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G53" s="45" t="s">
+      <c r="G53" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="H53" s="46" t="s">
+      <c r="H53" s="34" t="s">
         <v>269</v>
       </c>
       <c r="I53" s="7" t="s">
@@ -15722,7 +16273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17">
       <c r="A54" s="7" t="s">
         <v>258</v>
       </c>
@@ -15773,7 +16324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17">
       <c r="A55" s="7" t="s">
         <v>258</v>
       </c>
@@ -15795,7 +16346,7 @@
       <c r="G55" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H55" s="46" t="s">
+      <c r="H55" s="34" t="s">
         <v>269</v>
       </c>
       <c r="I55" s="7" t="s">
@@ -15824,7 +16375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17">
       <c r="A56" s="7" t="s">
         <v>258</v>
       </c>
@@ -15875,7 +16426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17">
       <c r="A57" s="7" t="s">
         <v>258</v>
       </c>
@@ -15897,7 +16448,7 @@
       <c r="G57" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H57" s="46" t="s">
+      <c r="H57" s="34" t="s">
         <v>269</v>
       </c>
       <c r="I57" s="7" t="s">
@@ -15926,7 +16477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17">
       <c r="A58" s="7" t="s">
         <v>19</v>
       </c>
@@ -15977,8 +16528,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A59" s="47" t="s">
+    <row r="59" spans="1:17">
+      <c r="A59" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="7">
@@ -16028,8 +16579,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A60" s="47" t="s">
+    <row r="60" spans="1:17">
+      <c r="A60" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="7">
@@ -16079,8 +16630,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A61" s="47" t="s">
+    <row r="61" spans="1:17">
+      <c r="A61" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B61" s="7">
@@ -16125,13 +16676,13 @@
       <c r="O61" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P61" s="47"/>
+      <c r="P61" s="35"/>
       <c r="Q61" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A62" s="47" t="s">
+    <row r="62" spans="1:17">
+      <c r="A62" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B62" s="7">
@@ -16176,46 +16727,46 @@
       <c r="O62" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P62" s="47"/>
+      <c r="P62" s="35"/>
       <c r="Q62" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A63" s="47" t="s">
+    <row r="63" spans="1:17">
+      <c r="A63" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B63" s="7">
         <v>2200</v>
       </c>
-      <c r="C63" s="47" t="s">
+      <c r="C63" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="35" t="s">
         <v>22</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H63" s="47" t="s">
+      <c r="H63" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I63" s="47" t="s">
+      <c r="I63" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J63" s="47" t="s">
+      <c r="J63" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K63" s="47" t="s">
+      <c r="K63" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="L63" s="47" t="s">
+      <c r="L63" s="35" t="s">
         <v>29</v>
       </c>
       <c r="M63" s="7" t="s">
@@ -16224,49 +16775,49 @@
       <c r="N63" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="O63" s="47" t="s">
+      <c r="O63" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="P63" s="47"/>
+      <c r="P63" s="35"/>
       <c r="Q63" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A64" s="47" t="s">
+    <row r="64" spans="1:17">
+      <c r="A64" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="7">
         <v>2200</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="47" t="s">
+      <c r="D64" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="E64" s="47" t="s">
+      <c r="E64" s="35" t="s">
         <v>22</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="47" t="s">
+      <c r="G64" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H64" s="47" t="s">
+      <c r="H64" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I64" s="47" t="s">
+      <c r="I64" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J64" s="47" t="s">
+      <c r="J64" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K64" s="47" t="s">
+      <c r="K64" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="L64" s="47" t="s">
+      <c r="L64" s="35" t="s">
         <v>29</v>
       </c>
       <c r="M64" s="7" t="s">
@@ -16275,49 +16826,49 @@
       <c r="N64" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="O64" s="47" t="s">
+      <c r="O64" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="P64" s="47"/>
+      <c r="P64" s="35"/>
       <c r="Q64" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A65" s="47" t="s">
+    <row r="65" spans="1:17">
+      <c r="A65" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B65" s="7">
         <v>9020</v>
       </c>
-      <c r="C65" s="47" t="s">
+      <c r="C65" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E65" s="47" t="s">
+      <c r="E65" s="35" t="s">
         <v>22</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="47" t="s">
+      <c r="G65" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="H65" s="47" t="s">
+      <c r="H65" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="I65" s="47" t="s">
+      <c r="I65" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J65" s="47" t="s">
+      <c r="J65" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="K65" s="47" t="s">
+      <c r="K65" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="L65" s="47" t="s">
+      <c r="L65" s="35" t="s">
         <v>313</v>
       </c>
       <c r="M65" s="7" t="s">
@@ -16329,46 +16880,46 @@
       <c r="O65" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P65" s="47"/>
+      <c r="P65" s="35"/>
       <c r="Q65" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A66" s="47" t="s">
+    <row r="66" spans="1:17">
+      <c r="A66" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B66" s="7">
         <v>9020</v>
       </c>
-      <c r="C66" s="47" t="s">
+      <c r="C66" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E66" s="47" t="s">
+      <c r="E66" s="35" t="s">
         <v>22</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="47" t="s">
+      <c r="G66" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="H66" s="47" t="s">
+      <c r="H66" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="I66" s="47" t="s">
+      <c r="I66" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J66" s="47" t="s">
+      <c r="J66" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="K66" s="47" t="s">
+      <c r="K66" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="L66" s="47" t="s">
+      <c r="L66" s="35" t="s">
         <v>313</v>
       </c>
       <c r="M66" s="7" t="s">
@@ -16380,46 +16931,46 @@
       <c r="O66" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P66" s="47"/>
+      <c r="P66" s="35"/>
       <c r="Q66" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A67" s="47" t="s">
+    <row r="67" spans="1:17">
+      <c r="A67" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B67" s="7">
         <v>9020</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C67" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E67" s="47" t="s">
+      <c r="E67" s="35" t="s">
         <v>22</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G67" s="47" t="s">
+      <c r="G67" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="H67" s="47" t="s">
+      <c r="H67" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="I67" s="47" t="s">
+      <c r="I67" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J67" s="47" t="s">
+      <c r="J67" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="K67" s="47" t="s">
+      <c r="K67" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="L67" s="47" t="s">
+      <c r="L67" s="35" t="s">
         <v>313</v>
       </c>
       <c r="M67" s="7" t="s">
@@ -16431,12 +16982,12 @@
       <c r="O67" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P67" s="47"/>
+      <c r="P67" s="35"/>
       <c r="Q67" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17">
       <c r="A68" s="15" t="s">
         <v>19</v>
       </c>
@@ -16486,18 +17037,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A69" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="B69" s="52" t="s">
-        <v>330</v>
-      </c>
-      <c r="C69" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="D69" s="51" t="s">
-        <v>331</v>
+    <row r="69" spans="1:17">
+      <c r="A69" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="50" t="s">
+        <v>320</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>22</v>
@@ -16514,8 +17065,8 @@
       <c r="I69" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J69" s="51" t="s">
-        <v>332</v>
+      <c r="J69" s="50" t="s">
+        <v>321</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>234</v>
@@ -16526,195 +17077,2314 @@
       <c r="M69" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N69" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="O69" s="54" t="s">
-        <v>334</v>
+      <c r="N69" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="O69" s="53" t="s">
+        <v>323</v>
       </c>
       <c r="Q69" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A70" s="51" t="s">
+    <row r="70" spans="1:17">
+      <c r="A70" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="D70" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="E70" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="I70" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J70" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="K70" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="L70" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="M70" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="N70" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="O70" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q70" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="E71" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="I71" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K71" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="L71" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="M71" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="N71" s="52" t="s">
         <v>335</v>
       </c>
-      <c r="B70" s="52" t="s">
+      <c r="O71" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="Q71" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="C72" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D70" s="51" t="s">
+      <c r="D72" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="H72" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="I72" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J72" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="E70" s="51" t="s">
+      <c r="K72" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="L72" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="M72" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="N72" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="F70" s="51" t="s">
+      <c r="O72" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q72" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" spans="1:1024">
+      <c r="A73" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="G70" s="51" t="s">
+      <c r="C73" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="H70" s="51" t="s">
+      <c r="D73" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J73" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="I70" s="51" t="s">
+      <c r="K73" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="J70" s="51" t="s">
+      <c r="L73" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="K70" s="51" t="s">
+      <c r="M73" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N73" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="L70" s="51" t="s">
+      <c r="O73" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15"/>
+      <c r="AH73" s="15"/>
+      <c r="AI73" s="15"/>
+      <c r="AJ73" s="15"/>
+      <c r="AK73" s="15"/>
+      <c r="AL73" s="15"/>
+      <c r="AM73" s="15"/>
+      <c r="AN73" s="15"/>
+      <c r="AO73" s="15"/>
+      <c r="AP73" s="15"/>
+      <c r="AQ73" s="15"/>
+      <c r="AR73" s="15"/>
+      <c r="AS73" s="15"/>
+      <c r="AT73" s="15"/>
+      <c r="AU73" s="15"/>
+      <c r="AV73" s="15"/>
+      <c r="AW73" s="15"/>
+      <c r="AX73" s="15"/>
+      <c r="AY73" s="15"/>
+      <c r="AZ73" s="15"/>
+      <c r="BA73" s="15"/>
+      <c r="BB73" s="15"/>
+      <c r="BC73" s="15"/>
+      <c r="BD73" s="15"/>
+      <c r="BE73" s="15"/>
+      <c r="BF73" s="15"/>
+      <c r="BG73" s="15"/>
+      <c r="BH73" s="15"/>
+      <c r="BI73" s="15"/>
+      <c r="BJ73" s="15"/>
+      <c r="BK73" s="15"/>
+      <c r="BL73" s="15"/>
+      <c r="BM73" s="15"/>
+      <c r="BN73" s="15"/>
+      <c r="BO73" s="15"/>
+      <c r="BP73" s="15"/>
+      <c r="BQ73" s="15"/>
+      <c r="BR73" s="15"/>
+      <c r="BS73" s="15"/>
+      <c r="BT73" s="15"/>
+      <c r="BU73" s="15"/>
+      <c r="BV73" s="15"/>
+      <c r="BW73" s="15"/>
+      <c r="BX73" s="15"/>
+      <c r="BY73" s="15"/>
+      <c r="BZ73" s="15"/>
+      <c r="CA73" s="15"/>
+      <c r="CB73" s="15"/>
+      <c r="CC73" s="15"/>
+      <c r="CD73" s="15"/>
+      <c r="CE73" s="15"/>
+      <c r="CF73" s="15"/>
+      <c r="CG73" s="15"/>
+      <c r="CH73" s="15"/>
+      <c r="CI73" s="15"/>
+      <c r="CJ73" s="15"/>
+      <c r="CK73" s="15"/>
+      <c r="CL73" s="15"/>
+      <c r="CM73" s="15"/>
+      <c r="CN73" s="15"/>
+      <c r="CO73" s="15"/>
+      <c r="CP73" s="15"/>
+      <c r="CQ73" s="15"/>
+      <c r="CR73" s="15"/>
+      <c r="CS73" s="15"/>
+      <c r="CT73" s="15"/>
+      <c r="CU73" s="15"/>
+      <c r="CV73" s="15"/>
+      <c r="CW73" s="15"/>
+      <c r="CX73" s="15"/>
+      <c r="CY73" s="15"/>
+      <c r="CZ73" s="15"/>
+      <c r="DA73" s="15"/>
+      <c r="DB73" s="15"/>
+      <c r="DC73" s="15"/>
+      <c r="DD73" s="15"/>
+      <c r="DE73" s="15"/>
+      <c r="DF73" s="15"/>
+      <c r="DG73" s="15"/>
+      <c r="DH73" s="15"/>
+      <c r="DI73" s="15"/>
+      <c r="DJ73" s="15"/>
+      <c r="DK73" s="15"/>
+      <c r="DL73" s="15"/>
+      <c r="DM73" s="15"/>
+      <c r="DN73" s="15"/>
+      <c r="DO73" s="15"/>
+      <c r="DP73" s="15"/>
+      <c r="DQ73" s="15"/>
+      <c r="DR73" s="15"/>
+      <c r="DS73" s="15"/>
+      <c r="DT73" s="15"/>
+      <c r="DU73" s="15"/>
+      <c r="DV73" s="15"/>
+      <c r="DW73" s="15"/>
+      <c r="DX73" s="15"/>
+      <c r="DY73" s="15"/>
+      <c r="DZ73" s="15"/>
+      <c r="EA73" s="15"/>
+      <c r="EB73" s="15"/>
+      <c r="EC73" s="15"/>
+      <c r="ED73" s="15"/>
+      <c r="EE73" s="15"/>
+      <c r="EF73" s="15"/>
+      <c r="EG73" s="15"/>
+      <c r="EH73" s="15"/>
+      <c r="EI73" s="15"/>
+      <c r="EJ73" s="15"/>
+      <c r="EK73" s="15"/>
+      <c r="EL73" s="15"/>
+      <c r="EM73" s="15"/>
+      <c r="EN73" s="15"/>
+      <c r="EO73" s="15"/>
+      <c r="EP73" s="15"/>
+      <c r="EQ73" s="15"/>
+      <c r="ER73" s="15"/>
+      <c r="ES73" s="15"/>
+      <c r="ET73" s="15"/>
+      <c r="EU73" s="15"/>
+      <c r="EV73" s="15"/>
+      <c r="EW73" s="15"/>
+      <c r="EX73" s="15"/>
+      <c r="EY73" s="15"/>
+      <c r="EZ73" s="15"/>
+      <c r="FA73" s="15"/>
+      <c r="FB73" s="15"/>
+      <c r="FC73" s="15"/>
+      <c r="FD73" s="15"/>
+      <c r="FE73" s="15"/>
+      <c r="FF73" s="15"/>
+      <c r="FG73" s="15"/>
+      <c r="FH73" s="15"/>
+      <c r="FI73" s="15"/>
+      <c r="FJ73" s="15"/>
+      <c r="FK73" s="15"/>
+      <c r="FL73" s="15"/>
+      <c r="FM73" s="15"/>
+      <c r="FN73" s="15"/>
+      <c r="FO73" s="15"/>
+      <c r="FP73" s="15"/>
+      <c r="FQ73" s="15"/>
+      <c r="FR73" s="15"/>
+      <c r="FS73" s="15"/>
+      <c r="FT73" s="15"/>
+      <c r="FU73" s="15"/>
+      <c r="FV73" s="15"/>
+      <c r="FW73" s="15"/>
+      <c r="FX73" s="15"/>
+      <c r="FY73" s="15"/>
+      <c r="FZ73" s="15"/>
+      <c r="GA73" s="15"/>
+      <c r="GB73" s="15"/>
+      <c r="GC73" s="15"/>
+      <c r="GD73" s="15"/>
+      <c r="GE73" s="15"/>
+      <c r="GF73" s="15"/>
+      <c r="GG73" s="15"/>
+      <c r="GH73" s="15"/>
+      <c r="GI73" s="15"/>
+      <c r="GJ73" s="15"/>
+      <c r="GK73" s="15"/>
+      <c r="GL73" s="15"/>
+      <c r="GM73" s="15"/>
+      <c r="GN73" s="15"/>
+      <c r="GO73" s="15"/>
+      <c r="GP73" s="15"/>
+      <c r="GQ73" s="15"/>
+      <c r="GR73" s="15"/>
+      <c r="GS73" s="15"/>
+      <c r="GT73" s="15"/>
+      <c r="GU73" s="15"/>
+      <c r="GV73" s="15"/>
+      <c r="GW73" s="15"/>
+      <c r="GX73" s="15"/>
+      <c r="GY73" s="15"/>
+      <c r="GZ73" s="15"/>
+      <c r="HA73" s="15"/>
+      <c r="HB73" s="15"/>
+      <c r="HC73" s="15"/>
+      <c r="HD73" s="15"/>
+      <c r="HE73" s="15"/>
+      <c r="HF73" s="15"/>
+      <c r="HG73" s="15"/>
+      <c r="HH73" s="15"/>
+      <c r="HI73" s="15"/>
+      <c r="HJ73" s="15"/>
+      <c r="HK73" s="15"/>
+      <c r="HL73" s="15"/>
+      <c r="HM73" s="15"/>
+      <c r="HN73" s="15"/>
+      <c r="HO73" s="15"/>
+      <c r="HP73" s="15"/>
+      <c r="HQ73" s="15"/>
+      <c r="HR73" s="15"/>
+      <c r="HS73" s="15"/>
+      <c r="HT73" s="15"/>
+      <c r="HU73" s="15"/>
+      <c r="HV73" s="15"/>
+      <c r="HW73" s="15"/>
+      <c r="HX73" s="15"/>
+      <c r="HY73" s="15"/>
+      <c r="HZ73" s="15"/>
+      <c r="IA73" s="15"/>
+      <c r="IB73" s="15"/>
+      <c r="IC73" s="15"/>
+      <c r="ID73" s="15"/>
+      <c r="IE73" s="15"/>
+      <c r="IF73" s="15"/>
+      <c r="IG73" s="15"/>
+      <c r="IH73" s="15"/>
+      <c r="II73" s="15"/>
+      <c r="IJ73" s="15"/>
+      <c r="IK73" s="15"/>
+      <c r="IL73" s="15"/>
+      <c r="IM73" s="15"/>
+      <c r="IN73" s="15"/>
+      <c r="IO73" s="15"/>
+      <c r="IP73" s="15"/>
+      <c r="IQ73" s="15"/>
+      <c r="IR73" s="15"/>
+      <c r="IS73" s="15"/>
+      <c r="IT73" s="15"/>
+      <c r="IU73" s="15"/>
+      <c r="IV73" s="15"/>
+      <c r="IW73" s="15"/>
+      <c r="IX73" s="15"/>
+      <c r="IY73" s="15"/>
+      <c r="IZ73" s="15"/>
+      <c r="JA73" s="15"/>
+      <c r="JB73" s="15"/>
+      <c r="JC73" s="15"/>
+      <c r="JD73" s="15"/>
+      <c r="JE73" s="15"/>
+      <c r="JF73" s="15"/>
+      <c r="JG73" s="15"/>
+      <c r="JH73" s="15"/>
+      <c r="JI73" s="15"/>
+      <c r="JJ73" s="15"/>
+      <c r="JK73" s="15"/>
+      <c r="JL73" s="15"/>
+      <c r="JM73" s="15"/>
+      <c r="JN73" s="15"/>
+      <c r="JO73" s="15"/>
+      <c r="JP73" s="15"/>
+      <c r="JQ73" s="15"/>
+      <c r="JR73" s="15"/>
+      <c r="JS73" s="15"/>
+      <c r="JT73" s="15"/>
+      <c r="JU73" s="15"/>
+      <c r="JV73" s="15"/>
+      <c r="JW73" s="15"/>
+      <c r="JX73" s="15"/>
+      <c r="JY73" s="15"/>
+      <c r="JZ73" s="15"/>
+      <c r="KA73" s="15"/>
+      <c r="KB73" s="15"/>
+      <c r="KC73" s="15"/>
+      <c r="KD73" s="15"/>
+      <c r="KE73" s="15"/>
+      <c r="KF73" s="15"/>
+      <c r="KG73" s="15"/>
+      <c r="KH73" s="15"/>
+      <c r="KI73" s="15"/>
+      <c r="KJ73" s="15"/>
+      <c r="KK73" s="15"/>
+      <c r="KL73" s="15"/>
+      <c r="KM73" s="15"/>
+      <c r="KN73" s="15"/>
+      <c r="KO73" s="15"/>
+      <c r="KP73" s="15"/>
+      <c r="KQ73" s="15"/>
+      <c r="KR73" s="15"/>
+      <c r="KS73" s="15"/>
+      <c r="KT73" s="15"/>
+      <c r="KU73" s="15"/>
+      <c r="KV73" s="15"/>
+      <c r="KW73" s="15"/>
+      <c r="KX73" s="15"/>
+      <c r="KY73" s="15"/>
+      <c r="KZ73" s="15"/>
+      <c r="LA73" s="15"/>
+      <c r="LB73" s="15"/>
+      <c r="LC73" s="15"/>
+      <c r="LD73" s="15"/>
+      <c r="LE73" s="15"/>
+      <c r="LF73" s="15"/>
+      <c r="LG73" s="15"/>
+      <c r="LH73" s="15"/>
+      <c r="LI73" s="15"/>
+      <c r="LJ73" s="15"/>
+      <c r="LK73" s="15"/>
+      <c r="LL73" s="15"/>
+      <c r="LM73" s="15"/>
+      <c r="LN73" s="15"/>
+      <c r="LO73" s="15"/>
+      <c r="LP73" s="15"/>
+      <c r="LQ73" s="15"/>
+      <c r="LR73" s="15"/>
+      <c r="LS73" s="15"/>
+      <c r="LT73" s="15"/>
+      <c r="LU73" s="15"/>
+      <c r="LV73" s="15"/>
+      <c r="LW73" s="15"/>
+      <c r="LX73" s="15"/>
+      <c r="LY73" s="15"/>
+      <c r="LZ73" s="15"/>
+      <c r="MA73" s="15"/>
+      <c r="MB73" s="15"/>
+      <c r="MC73" s="15"/>
+      <c r="MD73" s="15"/>
+      <c r="ME73" s="15"/>
+      <c r="MF73" s="15"/>
+      <c r="MG73" s="15"/>
+      <c r="MH73" s="15"/>
+      <c r="MI73" s="15"/>
+      <c r="MJ73" s="15"/>
+      <c r="MK73" s="15"/>
+      <c r="ML73" s="15"/>
+      <c r="MM73" s="15"/>
+      <c r="MN73" s="15"/>
+      <c r="MO73" s="15"/>
+      <c r="MP73" s="15"/>
+      <c r="MQ73" s="15"/>
+      <c r="MR73" s="15"/>
+      <c r="MS73" s="15"/>
+      <c r="MT73" s="15"/>
+      <c r="MU73" s="15"/>
+      <c r="MV73" s="15"/>
+      <c r="MW73" s="15"/>
+      <c r="MX73" s="15"/>
+      <c r="MY73" s="15"/>
+      <c r="MZ73" s="15"/>
+      <c r="NA73" s="15"/>
+      <c r="NB73" s="15"/>
+      <c r="NC73" s="15"/>
+      <c r="ND73" s="15"/>
+      <c r="NE73" s="15"/>
+      <c r="NF73" s="15"/>
+      <c r="NG73" s="15"/>
+      <c r="NH73" s="15"/>
+      <c r="NI73" s="15"/>
+      <c r="NJ73" s="15"/>
+      <c r="NK73" s="15"/>
+      <c r="NL73" s="15"/>
+      <c r="NM73" s="15"/>
+      <c r="NN73" s="15"/>
+      <c r="NO73" s="15"/>
+      <c r="NP73" s="15"/>
+      <c r="NQ73" s="15"/>
+      <c r="NR73" s="15"/>
+      <c r="NS73" s="15"/>
+      <c r="NT73" s="15"/>
+      <c r="NU73" s="15"/>
+      <c r="NV73" s="15"/>
+      <c r="NW73" s="15"/>
+      <c r="NX73" s="15"/>
+      <c r="NY73" s="15"/>
+      <c r="NZ73" s="15"/>
+      <c r="OA73" s="15"/>
+      <c r="OB73" s="15"/>
+      <c r="OC73" s="15"/>
+      <c r="OD73" s="15"/>
+      <c r="OE73" s="15"/>
+      <c r="OF73" s="15"/>
+      <c r="OG73" s="15"/>
+      <c r="OH73" s="15"/>
+      <c r="OI73" s="15"/>
+      <c r="OJ73" s="15"/>
+      <c r="OK73" s="15"/>
+      <c r="OL73" s="15"/>
+      <c r="OM73" s="15"/>
+      <c r="ON73" s="15"/>
+      <c r="OO73" s="15"/>
+      <c r="OP73" s="15"/>
+      <c r="OQ73" s="15"/>
+      <c r="OR73" s="15"/>
+      <c r="OS73" s="15"/>
+      <c r="OT73" s="15"/>
+      <c r="OU73" s="15"/>
+      <c r="OV73" s="15"/>
+      <c r="OW73" s="15"/>
+      <c r="OX73" s="15"/>
+      <c r="OY73" s="15"/>
+      <c r="OZ73" s="15"/>
+      <c r="PA73" s="15"/>
+      <c r="PB73" s="15"/>
+      <c r="PC73" s="15"/>
+      <c r="PD73" s="15"/>
+      <c r="PE73" s="15"/>
+      <c r="PF73" s="15"/>
+      <c r="PG73" s="15"/>
+      <c r="PH73" s="15"/>
+      <c r="PI73" s="15"/>
+      <c r="PJ73" s="15"/>
+      <c r="PK73" s="15"/>
+      <c r="PL73" s="15"/>
+      <c r="PM73" s="15"/>
+      <c r="PN73" s="15"/>
+      <c r="PO73" s="15"/>
+      <c r="PP73" s="15"/>
+      <c r="PQ73" s="15"/>
+      <c r="PR73" s="15"/>
+      <c r="PS73" s="15"/>
+      <c r="PT73" s="15"/>
+      <c r="PU73" s="15"/>
+      <c r="PV73" s="15"/>
+      <c r="PW73" s="15"/>
+      <c r="PX73" s="15"/>
+      <c r="PY73" s="15"/>
+      <c r="PZ73" s="15"/>
+      <c r="QA73" s="15"/>
+      <c r="QB73" s="15"/>
+      <c r="QC73" s="15"/>
+      <c r="QD73" s="15"/>
+      <c r="QE73" s="15"/>
+      <c r="QF73" s="15"/>
+      <c r="QG73" s="15"/>
+      <c r="QH73" s="15"/>
+      <c r="QI73" s="15"/>
+      <c r="QJ73" s="15"/>
+      <c r="QK73" s="15"/>
+      <c r="QL73" s="15"/>
+      <c r="QM73" s="15"/>
+      <c r="QN73" s="15"/>
+      <c r="QO73" s="15"/>
+      <c r="QP73" s="15"/>
+      <c r="QQ73" s="15"/>
+      <c r="QR73" s="15"/>
+      <c r="QS73" s="15"/>
+      <c r="QT73" s="15"/>
+      <c r="QU73" s="15"/>
+      <c r="QV73" s="15"/>
+      <c r="QW73" s="15"/>
+      <c r="QX73" s="15"/>
+      <c r="QY73" s="15"/>
+      <c r="QZ73" s="15"/>
+      <c r="RA73" s="15"/>
+      <c r="RB73" s="15"/>
+      <c r="RC73" s="15"/>
+      <c r="RD73" s="15"/>
+      <c r="RE73" s="15"/>
+      <c r="RF73" s="15"/>
+      <c r="RG73" s="15"/>
+      <c r="RH73" s="15"/>
+      <c r="RI73" s="15"/>
+      <c r="RJ73" s="15"/>
+      <c r="RK73" s="15"/>
+      <c r="RL73" s="15"/>
+      <c r="RM73" s="15"/>
+      <c r="RN73" s="15"/>
+      <c r="RO73" s="15"/>
+      <c r="RP73" s="15"/>
+      <c r="RQ73" s="15"/>
+      <c r="RR73" s="15"/>
+      <c r="RS73" s="15"/>
+      <c r="RT73" s="15"/>
+      <c r="RU73" s="15"/>
+      <c r="RV73" s="15"/>
+      <c r="RW73" s="15"/>
+      <c r="RX73" s="15"/>
+      <c r="RY73" s="15"/>
+      <c r="RZ73" s="15"/>
+      <c r="SA73" s="15"/>
+      <c r="SB73" s="15"/>
+      <c r="SC73" s="15"/>
+      <c r="SD73" s="15"/>
+      <c r="SE73" s="15"/>
+      <c r="SF73" s="15"/>
+      <c r="SG73" s="15"/>
+      <c r="SH73" s="15"/>
+      <c r="SI73" s="15"/>
+      <c r="SJ73" s="15"/>
+      <c r="SK73" s="15"/>
+      <c r="SL73" s="15"/>
+      <c r="SM73" s="15"/>
+      <c r="SN73" s="15"/>
+      <c r="SO73" s="15"/>
+      <c r="SP73" s="15"/>
+      <c r="SQ73" s="15"/>
+      <c r="SR73" s="15"/>
+      <c r="SS73" s="15"/>
+      <c r="ST73" s="15"/>
+      <c r="SU73" s="15"/>
+      <c r="SV73" s="15"/>
+      <c r="SW73" s="15"/>
+      <c r="SX73" s="15"/>
+      <c r="SY73" s="15"/>
+      <c r="SZ73" s="15"/>
+      <c r="TA73" s="15"/>
+      <c r="TB73" s="15"/>
+      <c r="TC73" s="15"/>
+      <c r="TD73" s="15"/>
+      <c r="TE73" s="15"/>
+      <c r="TF73" s="15"/>
+      <c r="TG73" s="15"/>
+      <c r="TH73" s="15"/>
+      <c r="TI73" s="15"/>
+      <c r="TJ73" s="15"/>
+      <c r="TK73" s="15"/>
+      <c r="TL73" s="15"/>
+      <c r="TM73" s="15"/>
+      <c r="TN73" s="15"/>
+      <c r="TO73" s="15"/>
+      <c r="TP73" s="15"/>
+      <c r="TQ73" s="15"/>
+      <c r="TR73" s="15"/>
+      <c r="TS73" s="15"/>
+      <c r="TT73" s="15"/>
+      <c r="TU73" s="15"/>
+      <c r="TV73" s="15"/>
+      <c r="TW73" s="15"/>
+      <c r="TX73" s="15"/>
+      <c r="TY73" s="15"/>
+      <c r="TZ73" s="15"/>
+      <c r="UA73" s="15"/>
+      <c r="UB73" s="15"/>
+      <c r="UC73" s="15"/>
+      <c r="UD73" s="15"/>
+      <c r="UE73" s="15"/>
+      <c r="UF73" s="15"/>
+      <c r="UG73" s="15"/>
+      <c r="UH73" s="15"/>
+      <c r="UI73" s="15"/>
+      <c r="UJ73" s="15"/>
+      <c r="UK73" s="15"/>
+      <c r="UL73" s="15"/>
+      <c r="UM73" s="15"/>
+      <c r="UN73" s="15"/>
+      <c r="UO73" s="15"/>
+      <c r="UP73" s="15"/>
+      <c r="UQ73" s="15"/>
+      <c r="UR73" s="15"/>
+      <c r="US73" s="15"/>
+      <c r="UT73" s="15"/>
+      <c r="UU73" s="15"/>
+      <c r="UV73" s="15"/>
+      <c r="UW73" s="15"/>
+      <c r="UX73" s="15"/>
+      <c r="UY73" s="15"/>
+      <c r="UZ73" s="15"/>
+      <c r="VA73" s="15"/>
+      <c r="VB73" s="15"/>
+      <c r="VC73" s="15"/>
+      <c r="VD73" s="15"/>
+      <c r="VE73" s="15"/>
+      <c r="VF73" s="15"/>
+      <c r="VG73" s="15"/>
+      <c r="VH73" s="15"/>
+      <c r="VI73" s="15"/>
+      <c r="VJ73" s="15"/>
+      <c r="VK73" s="15"/>
+      <c r="VL73" s="15"/>
+      <c r="VM73" s="15"/>
+      <c r="VN73" s="15"/>
+      <c r="VO73" s="15"/>
+      <c r="VP73" s="15"/>
+      <c r="VQ73" s="15"/>
+      <c r="VR73" s="15"/>
+      <c r="VS73" s="15"/>
+      <c r="VT73" s="15"/>
+      <c r="VU73" s="15"/>
+      <c r="VV73" s="15"/>
+      <c r="VW73" s="15"/>
+      <c r="VX73" s="15"/>
+      <c r="VY73" s="15"/>
+      <c r="VZ73" s="15"/>
+      <c r="WA73" s="15"/>
+      <c r="WB73" s="15"/>
+      <c r="WC73" s="15"/>
+      <c r="WD73" s="15"/>
+      <c r="WE73" s="15"/>
+      <c r="WF73" s="15"/>
+      <c r="WG73" s="15"/>
+      <c r="WH73" s="15"/>
+      <c r="WI73" s="15"/>
+      <c r="WJ73" s="15"/>
+      <c r="WK73" s="15"/>
+      <c r="WL73" s="15"/>
+      <c r="WM73" s="15"/>
+      <c r="WN73" s="15"/>
+      <c r="WO73" s="15"/>
+      <c r="WP73" s="15"/>
+      <c r="WQ73" s="15"/>
+      <c r="WR73" s="15"/>
+      <c r="WS73" s="15"/>
+      <c r="WT73" s="15"/>
+      <c r="WU73" s="15"/>
+      <c r="WV73" s="15"/>
+      <c r="WW73" s="15"/>
+      <c r="WX73" s="15"/>
+      <c r="WY73" s="15"/>
+      <c r="WZ73" s="15"/>
+      <c r="XA73" s="15"/>
+      <c r="XB73" s="15"/>
+      <c r="XC73" s="15"/>
+      <c r="XD73" s="15"/>
+      <c r="XE73" s="15"/>
+      <c r="XF73" s="15"/>
+      <c r="XG73" s="15"/>
+      <c r="XH73" s="15"/>
+      <c r="XI73" s="15"/>
+      <c r="XJ73" s="15"/>
+      <c r="XK73" s="15"/>
+      <c r="XL73" s="15"/>
+      <c r="XM73" s="15"/>
+      <c r="XN73" s="15"/>
+      <c r="XO73" s="15"/>
+      <c r="XP73" s="15"/>
+      <c r="XQ73" s="15"/>
+      <c r="XR73" s="15"/>
+      <c r="XS73" s="15"/>
+      <c r="XT73" s="15"/>
+      <c r="XU73" s="15"/>
+      <c r="XV73" s="15"/>
+      <c r="XW73" s="15"/>
+      <c r="XX73" s="15"/>
+      <c r="XY73" s="15"/>
+      <c r="XZ73" s="15"/>
+      <c r="YA73" s="15"/>
+      <c r="YB73" s="15"/>
+      <c r="YC73" s="15"/>
+      <c r="YD73" s="15"/>
+      <c r="YE73" s="15"/>
+      <c r="YF73" s="15"/>
+      <c r="YG73" s="15"/>
+      <c r="YH73" s="15"/>
+      <c r="YI73" s="15"/>
+      <c r="YJ73" s="15"/>
+      <c r="YK73" s="15"/>
+      <c r="YL73" s="15"/>
+      <c r="YM73" s="15"/>
+      <c r="YN73" s="15"/>
+      <c r="YO73" s="15"/>
+      <c r="YP73" s="15"/>
+      <c r="YQ73" s="15"/>
+      <c r="YR73" s="15"/>
+      <c r="YS73" s="15"/>
+      <c r="YT73" s="15"/>
+      <c r="YU73" s="15"/>
+      <c r="YV73" s="15"/>
+      <c r="YW73" s="15"/>
+      <c r="YX73" s="15"/>
+      <c r="YY73" s="15"/>
+      <c r="YZ73" s="15"/>
+      <c r="ZA73" s="15"/>
+      <c r="ZB73" s="15"/>
+      <c r="ZC73" s="15"/>
+      <c r="ZD73" s="15"/>
+      <c r="ZE73" s="15"/>
+      <c r="ZF73" s="15"/>
+      <c r="ZG73" s="15"/>
+      <c r="ZH73" s="15"/>
+      <c r="ZI73" s="15"/>
+      <c r="ZJ73" s="15"/>
+      <c r="ZK73" s="15"/>
+      <c r="ZL73" s="15"/>
+      <c r="ZM73" s="15"/>
+      <c r="ZN73" s="15"/>
+      <c r="ZO73" s="15"/>
+      <c r="ZP73" s="15"/>
+      <c r="ZQ73" s="15"/>
+      <c r="ZR73" s="15"/>
+      <c r="ZS73" s="15"/>
+      <c r="ZT73" s="15"/>
+      <c r="ZU73" s="15"/>
+      <c r="ZV73" s="15"/>
+      <c r="ZW73" s="15"/>
+      <c r="ZX73" s="15"/>
+      <c r="ZY73" s="15"/>
+      <c r="ZZ73" s="15"/>
+      <c r="AAA73" s="15"/>
+      <c r="AAB73" s="15"/>
+      <c r="AAC73" s="15"/>
+      <c r="AAD73" s="15"/>
+      <c r="AAE73" s="15"/>
+      <c r="AAF73" s="15"/>
+      <c r="AAG73" s="15"/>
+      <c r="AAH73" s="15"/>
+      <c r="AAI73" s="15"/>
+      <c r="AAJ73" s="15"/>
+      <c r="AAK73" s="15"/>
+      <c r="AAL73" s="15"/>
+      <c r="AAM73" s="15"/>
+      <c r="AAN73" s="15"/>
+      <c r="AAO73" s="15"/>
+      <c r="AAP73" s="15"/>
+      <c r="AAQ73" s="15"/>
+      <c r="AAR73" s="15"/>
+      <c r="AAS73" s="15"/>
+      <c r="AAT73" s="15"/>
+      <c r="AAU73" s="15"/>
+      <c r="AAV73" s="15"/>
+      <c r="AAW73" s="15"/>
+      <c r="AAX73" s="15"/>
+      <c r="AAY73" s="15"/>
+      <c r="AAZ73" s="15"/>
+      <c r="ABA73" s="15"/>
+      <c r="ABB73" s="15"/>
+      <c r="ABC73" s="15"/>
+      <c r="ABD73" s="15"/>
+      <c r="ABE73" s="15"/>
+      <c r="ABF73" s="15"/>
+      <c r="ABG73" s="15"/>
+      <c r="ABH73" s="15"/>
+      <c r="ABI73" s="15"/>
+      <c r="ABJ73" s="15"/>
+      <c r="ABK73" s="15"/>
+      <c r="ABL73" s="15"/>
+      <c r="ABM73" s="15"/>
+      <c r="ABN73" s="15"/>
+      <c r="ABO73" s="15"/>
+      <c r="ABP73" s="15"/>
+      <c r="ABQ73" s="15"/>
+      <c r="ABR73" s="15"/>
+      <c r="ABS73" s="15"/>
+      <c r="ABT73" s="15"/>
+      <c r="ABU73" s="15"/>
+      <c r="ABV73" s="15"/>
+      <c r="ABW73" s="15"/>
+      <c r="ABX73" s="15"/>
+      <c r="ABY73" s="15"/>
+      <c r="ABZ73" s="15"/>
+      <c r="ACA73" s="15"/>
+      <c r="ACB73" s="15"/>
+      <c r="ACC73" s="15"/>
+      <c r="ACD73" s="15"/>
+      <c r="ACE73" s="15"/>
+      <c r="ACF73" s="15"/>
+      <c r="ACG73" s="15"/>
+      <c r="ACH73" s="15"/>
+      <c r="ACI73" s="15"/>
+      <c r="ACJ73" s="15"/>
+      <c r="ACK73" s="15"/>
+      <c r="ACL73" s="15"/>
+      <c r="ACM73" s="15"/>
+      <c r="ACN73" s="15"/>
+      <c r="ACO73" s="15"/>
+      <c r="ACP73" s="15"/>
+      <c r="ACQ73" s="15"/>
+      <c r="ACR73" s="15"/>
+      <c r="ACS73" s="15"/>
+      <c r="ACT73" s="15"/>
+      <c r="ACU73" s="15"/>
+      <c r="ACV73" s="15"/>
+      <c r="ACW73" s="15"/>
+      <c r="ACX73" s="15"/>
+      <c r="ACY73" s="15"/>
+      <c r="ACZ73" s="15"/>
+      <c r="ADA73" s="15"/>
+      <c r="ADB73" s="15"/>
+      <c r="ADC73" s="15"/>
+      <c r="ADD73" s="15"/>
+      <c r="ADE73" s="15"/>
+      <c r="ADF73" s="15"/>
+      <c r="ADG73" s="15"/>
+      <c r="ADH73" s="15"/>
+      <c r="ADI73" s="15"/>
+      <c r="ADJ73" s="15"/>
+      <c r="ADK73" s="15"/>
+      <c r="ADL73" s="15"/>
+      <c r="ADM73" s="15"/>
+      <c r="ADN73" s="15"/>
+      <c r="ADO73" s="15"/>
+      <c r="ADP73" s="15"/>
+      <c r="ADQ73" s="15"/>
+      <c r="ADR73" s="15"/>
+      <c r="ADS73" s="15"/>
+      <c r="ADT73" s="15"/>
+      <c r="ADU73" s="15"/>
+      <c r="ADV73" s="15"/>
+      <c r="ADW73" s="15"/>
+      <c r="ADX73" s="15"/>
+      <c r="ADY73" s="15"/>
+      <c r="ADZ73" s="15"/>
+      <c r="AEA73" s="15"/>
+      <c r="AEB73" s="15"/>
+      <c r="AEC73" s="15"/>
+      <c r="AED73" s="15"/>
+      <c r="AEE73" s="15"/>
+      <c r="AEF73" s="15"/>
+      <c r="AEG73" s="15"/>
+      <c r="AEH73" s="15"/>
+      <c r="AEI73" s="15"/>
+      <c r="AEJ73" s="15"/>
+      <c r="AEK73" s="15"/>
+      <c r="AEL73" s="15"/>
+      <c r="AEM73" s="15"/>
+      <c r="AEN73" s="15"/>
+      <c r="AEO73" s="15"/>
+      <c r="AEP73" s="15"/>
+      <c r="AEQ73" s="15"/>
+      <c r="AER73" s="15"/>
+      <c r="AES73" s="15"/>
+      <c r="AET73" s="15"/>
+      <c r="AEU73" s="15"/>
+      <c r="AEV73" s="15"/>
+      <c r="AEW73" s="15"/>
+      <c r="AEX73" s="15"/>
+      <c r="AEY73" s="15"/>
+      <c r="AEZ73" s="15"/>
+      <c r="AFA73" s="15"/>
+      <c r="AFB73" s="15"/>
+      <c r="AFC73" s="15"/>
+      <c r="AFD73" s="15"/>
+      <c r="AFE73" s="15"/>
+      <c r="AFF73" s="15"/>
+      <c r="AFG73" s="15"/>
+      <c r="AFH73" s="15"/>
+      <c r="AFI73" s="15"/>
+      <c r="AFJ73" s="15"/>
+      <c r="AFK73" s="15"/>
+      <c r="AFL73" s="15"/>
+      <c r="AFM73" s="15"/>
+      <c r="AFN73" s="15"/>
+      <c r="AFO73" s="15"/>
+      <c r="AFP73" s="15"/>
+      <c r="AFQ73" s="15"/>
+      <c r="AFR73" s="15"/>
+      <c r="AFS73" s="15"/>
+      <c r="AFT73" s="15"/>
+      <c r="AFU73" s="15"/>
+      <c r="AFV73" s="15"/>
+      <c r="AFW73" s="15"/>
+      <c r="AFX73" s="15"/>
+      <c r="AFY73" s="15"/>
+      <c r="AFZ73" s="15"/>
+      <c r="AGA73" s="15"/>
+      <c r="AGB73" s="15"/>
+      <c r="AGC73" s="15"/>
+      <c r="AGD73" s="15"/>
+      <c r="AGE73" s="15"/>
+      <c r="AGF73" s="15"/>
+      <c r="AGG73" s="15"/>
+      <c r="AGH73" s="15"/>
+      <c r="AGI73" s="15"/>
+      <c r="AGJ73" s="15"/>
+      <c r="AGK73" s="15"/>
+      <c r="AGL73" s="15"/>
+      <c r="AGM73" s="15"/>
+      <c r="AGN73" s="15"/>
+      <c r="AGO73" s="15"/>
+      <c r="AGP73" s="15"/>
+      <c r="AGQ73" s="15"/>
+      <c r="AGR73" s="15"/>
+      <c r="AGS73" s="15"/>
+      <c r="AGT73" s="15"/>
+      <c r="AGU73" s="15"/>
+      <c r="AGV73" s="15"/>
+      <c r="AGW73" s="15"/>
+      <c r="AGX73" s="15"/>
+      <c r="AGY73" s="15"/>
+      <c r="AGZ73" s="15"/>
+      <c r="AHA73" s="15"/>
+      <c r="AHB73" s="15"/>
+      <c r="AHC73" s="15"/>
+      <c r="AHD73" s="15"/>
+      <c r="AHE73" s="15"/>
+      <c r="AHF73" s="15"/>
+      <c r="AHG73" s="15"/>
+      <c r="AHH73" s="15"/>
+      <c r="AHI73" s="15"/>
+      <c r="AHJ73" s="15"/>
+      <c r="AHK73" s="15"/>
+      <c r="AHL73" s="15"/>
+      <c r="AHM73" s="15"/>
+      <c r="AHN73" s="15"/>
+      <c r="AHO73" s="15"/>
+      <c r="AHP73" s="15"/>
+      <c r="AHQ73" s="15"/>
+      <c r="AHR73" s="15"/>
+      <c r="AHS73" s="15"/>
+      <c r="AHT73" s="15"/>
+      <c r="AHU73" s="15"/>
+      <c r="AHV73" s="15"/>
+      <c r="AHW73" s="15"/>
+      <c r="AHX73" s="15"/>
+      <c r="AHY73" s="15"/>
+      <c r="AHZ73" s="15"/>
+      <c r="AIA73" s="15"/>
+      <c r="AIB73" s="15"/>
+      <c r="AIC73" s="15"/>
+      <c r="AID73" s="15"/>
+      <c r="AIE73" s="15"/>
+      <c r="AIF73" s="15"/>
+      <c r="AIG73" s="15"/>
+      <c r="AIH73" s="15"/>
+      <c r="AII73" s="15"/>
+      <c r="AIJ73" s="15"/>
+      <c r="AIK73" s="15"/>
+      <c r="AIL73" s="15"/>
+      <c r="AIM73" s="15"/>
+      <c r="AIN73" s="15"/>
+      <c r="AIO73" s="15"/>
+      <c r="AIP73" s="15"/>
+      <c r="AIQ73" s="15"/>
+      <c r="AIR73" s="15"/>
+      <c r="AIS73" s="15"/>
+      <c r="AIT73" s="15"/>
+      <c r="AIU73" s="15"/>
+      <c r="AIV73" s="15"/>
+      <c r="AIW73" s="15"/>
+      <c r="AIX73" s="15"/>
+      <c r="AIY73" s="15"/>
+      <c r="AIZ73" s="15"/>
+      <c r="AJA73" s="15"/>
+      <c r="AJB73" s="15"/>
+      <c r="AJC73" s="15"/>
+      <c r="AJD73" s="15"/>
+      <c r="AJE73" s="15"/>
+      <c r="AJF73" s="15"/>
+      <c r="AJG73" s="15"/>
+      <c r="AJH73" s="15"/>
+      <c r="AJI73" s="15"/>
+      <c r="AJJ73" s="15"/>
+      <c r="AJK73" s="15"/>
+      <c r="AJL73" s="15"/>
+      <c r="AJM73" s="15"/>
+      <c r="AJN73" s="15"/>
+      <c r="AJO73" s="15"/>
+      <c r="AJP73" s="15"/>
+      <c r="AJQ73" s="15"/>
+      <c r="AJR73" s="15"/>
+      <c r="AJS73" s="15"/>
+      <c r="AJT73" s="15"/>
+      <c r="AJU73" s="15"/>
+      <c r="AJV73" s="15"/>
+      <c r="AJW73" s="15"/>
+      <c r="AJX73" s="15"/>
+      <c r="AJY73" s="15"/>
+      <c r="AJZ73" s="15"/>
+      <c r="AKA73" s="15"/>
+      <c r="AKB73" s="15"/>
+      <c r="AKC73" s="15"/>
+      <c r="AKD73" s="15"/>
+      <c r="AKE73" s="15"/>
+      <c r="AKF73" s="15"/>
+      <c r="AKG73" s="15"/>
+      <c r="AKH73" s="15"/>
+      <c r="AKI73" s="15"/>
+      <c r="AKJ73" s="15"/>
+      <c r="AKK73" s="15"/>
+      <c r="AKL73" s="15"/>
+      <c r="AKM73" s="15"/>
+      <c r="AKN73" s="15"/>
+      <c r="AKO73" s="15"/>
+      <c r="AKP73" s="15"/>
+      <c r="AKQ73" s="15"/>
+      <c r="AKR73" s="15"/>
+      <c r="AKS73" s="15"/>
+      <c r="AKT73" s="15"/>
+      <c r="AKU73" s="15"/>
+      <c r="AKV73" s="15"/>
+      <c r="AKW73" s="15"/>
+      <c r="AKX73" s="15"/>
+      <c r="AKY73" s="15"/>
+      <c r="AKZ73" s="15"/>
+      <c r="ALA73" s="15"/>
+      <c r="ALB73" s="15"/>
+      <c r="ALC73" s="15"/>
+      <c r="ALD73" s="15"/>
+      <c r="ALE73" s="15"/>
+      <c r="ALF73" s="15"/>
+      <c r="ALG73" s="15"/>
+      <c r="ALH73" s="15"/>
+      <c r="ALI73" s="15"/>
+      <c r="ALJ73" s="15"/>
+      <c r="ALK73" s="15"/>
+      <c r="ALL73" s="15"/>
+      <c r="ALM73" s="15"/>
+      <c r="ALN73" s="15"/>
+      <c r="ALO73" s="15"/>
+      <c r="ALP73" s="15"/>
+      <c r="ALQ73" s="15"/>
+      <c r="ALR73" s="15"/>
+      <c r="ALS73" s="15"/>
+      <c r="ALT73" s="15"/>
+      <c r="ALU73" s="15"/>
+      <c r="ALV73" s="15"/>
+      <c r="ALW73" s="15"/>
+      <c r="ALX73" s="15"/>
+      <c r="ALY73" s="15"/>
+      <c r="ALZ73" s="15"/>
+      <c r="AMA73" s="15"/>
+      <c r="AMB73" s="15"/>
+      <c r="AMC73" s="15"/>
+      <c r="AMD73" s="15"/>
+      <c r="AME73" s="15"/>
+      <c r="AMF73" s="15"/>
+      <c r="AMG73" s="15"/>
+      <c r="AMH73" s="15"/>
+      <c r="AMI73" s="15"/>
+      <c r="AMJ73" s="15"/>
+    </row>
+    <row r="74" customFormat="1" spans="1:1024">
+      <c r="A74" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="M70" s="51" t="s">
+      <c r="C74" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J74" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="N70" s="53" t="s">
+      <c r="K74" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="O70" s="54" t="s">
+      <c r="L74" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="Q70" s="51" t="s">
+      <c r="M74" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N74" s="17" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A71" s="51" t="s">
+      <c r="O74" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B71" s="52" t="s">
-        <v>352</v>
-      </c>
-      <c r="C71" s="51" t="s">
-        <v>351</v>
-      </c>
-      <c r="D71" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="E71" s="51" t="s">
-        <v>339</v>
-      </c>
-      <c r="F71" s="51" t="s">
-        <v>340</v>
-      </c>
-      <c r="G71" s="51" t="s">
-        <v>354</v>
-      </c>
-      <c r="H71" s="51" t="s">
-        <v>355</v>
-      </c>
-      <c r="I71" s="51" t="s">
-        <v>356</v>
-      </c>
-      <c r="J71" s="51" t="s">
-        <v>357</v>
-      </c>
-      <c r="K71" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="L71" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="M71" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="N71" s="53" t="s">
-        <v>361</v>
-      </c>
-      <c r="O71" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q71" s="51" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A72" s="51" t="s">
-        <v>335</v>
-      </c>
-      <c r="B72" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="C72" s="51" t="s">
-        <v>363</v>
-      </c>
-      <c r="D72" s="51" t="s">
-        <v>364</v>
-      </c>
-      <c r="E72" s="51" t="s">
-        <v>339</v>
-      </c>
-      <c r="F72" s="51" t="s">
-        <v>340</v>
-      </c>
-      <c r="G72" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="H72" s="51" t="s">
-        <v>342</v>
-      </c>
-      <c r="I72" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="J72" s="51" t="s">
-        <v>365</v>
-      </c>
-      <c r="K72" s="51" t="s">
-        <v>345</v>
-      </c>
-      <c r="L72" s="51" t="s">
-        <v>346</v>
-      </c>
-      <c r="M72" s="51" t="s">
-        <v>347</v>
-      </c>
-      <c r="N72" s="53" t="s">
-        <v>366</v>
-      </c>
-      <c r="O72" s="54" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q72" s="51" t="s">
-        <v>350</v>
-      </c>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="15"/>
+      <c r="Z74" s="15"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
+      <c r="AE74" s="15"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="15"/>
+      <c r="AH74" s="15"/>
+      <c r="AI74" s="15"/>
+      <c r="AJ74" s="15"/>
+      <c r="AK74" s="15"/>
+      <c r="AL74" s="15"/>
+      <c r="AM74" s="15"/>
+      <c r="AN74" s="15"/>
+      <c r="AO74" s="15"/>
+      <c r="AP74" s="15"/>
+      <c r="AQ74" s="15"/>
+      <c r="AR74" s="15"/>
+      <c r="AS74" s="15"/>
+      <c r="AT74" s="15"/>
+      <c r="AU74" s="15"/>
+      <c r="AV74" s="15"/>
+      <c r="AW74" s="15"/>
+      <c r="AX74" s="15"/>
+      <c r="AY74" s="15"/>
+      <c r="AZ74" s="15"/>
+      <c r="BA74" s="15"/>
+      <c r="BB74" s="15"/>
+      <c r="BC74" s="15"/>
+      <c r="BD74" s="15"/>
+      <c r="BE74" s="15"/>
+      <c r="BF74" s="15"/>
+      <c r="BG74" s="15"/>
+      <c r="BH74" s="15"/>
+      <c r="BI74" s="15"/>
+      <c r="BJ74" s="15"/>
+      <c r="BK74" s="15"/>
+      <c r="BL74" s="15"/>
+      <c r="BM74" s="15"/>
+      <c r="BN74" s="15"/>
+      <c r="BO74" s="15"/>
+      <c r="BP74" s="15"/>
+      <c r="BQ74" s="15"/>
+      <c r="BR74" s="15"/>
+      <c r="BS74" s="15"/>
+      <c r="BT74" s="15"/>
+      <c r="BU74" s="15"/>
+      <c r="BV74" s="15"/>
+      <c r="BW74" s="15"/>
+      <c r="BX74" s="15"/>
+      <c r="BY74" s="15"/>
+      <c r="BZ74" s="15"/>
+      <c r="CA74" s="15"/>
+      <c r="CB74" s="15"/>
+      <c r="CC74" s="15"/>
+      <c r="CD74" s="15"/>
+      <c r="CE74" s="15"/>
+      <c r="CF74" s="15"/>
+      <c r="CG74" s="15"/>
+      <c r="CH74" s="15"/>
+      <c r="CI74" s="15"/>
+      <c r="CJ74" s="15"/>
+      <c r="CK74" s="15"/>
+      <c r="CL74" s="15"/>
+      <c r="CM74" s="15"/>
+      <c r="CN74" s="15"/>
+      <c r="CO74" s="15"/>
+      <c r="CP74" s="15"/>
+      <c r="CQ74" s="15"/>
+      <c r="CR74" s="15"/>
+      <c r="CS74" s="15"/>
+      <c r="CT74" s="15"/>
+      <c r="CU74" s="15"/>
+      <c r="CV74" s="15"/>
+      <c r="CW74" s="15"/>
+      <c r="CX74" s="15"/>
+      <c r="CY74" s="15"/>
+      <c r="CZ74" s="15"/>
+      <c r="DA74" s="15"/>
+      <c r="DB74" s="15"/>
+      <c r="DC74" s="15"/>
+      <c r="DD74" s="15"/>
+      <c r="DE74" s="15"/>
+      <c r="DF74" s="15"/>
+      <c r="DG74" s="15"/>
+      <c r="DH74" s="15"/>
+      <c r="DI74" s="15"/>
+      <c r="DJ74" s="15"/>
+      <c r="DK74" s="15"/>
+      <c r="DL74" s="15"/>
+      <c r="DM74" s="15"/>
+      <c r="DN74" s="15"/>
+      <c r="DO74" s="15"/>
+      <c r="DP74" s="15"/>
+      <c r="DQ74" s="15"/>
+      <c r="DR74" s="15"/>
+      <c r="DS74" s="15"/>
+      <c r="DT74" s="15"/>
+      <c r="DU74" s="15"/>
+      <c r="DV74" s="15"/>
+      <c r="DW74" s="15"/>
+      <c r="DX74" s="15"/>
+      <c r="DY74" s="15"/>
+      <c r="DZ74" s="15"/>
+      <c r="EA74" s="15"/>
+      <c r="EB74" s="15"/>
+      <c r="EC74" s="15"/>
+      <c r="ED74" s="15"/>
+      <c r="EE74" s="15"/>
+      <c r="EF74" s="15"/>
+      <c r="EG74" s="15"/>
+      <c r="EH74" s="15"/>
+      <c r="EI74" s="15"/>
+      <c r="EJ74" s="15"/>
+      <c r="EK74" s="15"/>
+      <c r="EL74" s="15"/>
+      <c r="EM74" s="15"/>
+      <c r="EN74" s="15"/>
+      <c r="EO74" s="15"/>
+      <c r="EP74" s="15"/>
+      <c r="EQ74" s="15"/>
+      <c r="ER74" s="15"/>
+      <c r="ES74" s="15"/>
+      <c r="ET74" s="15"/>
+      <c r="EU74" s="15"/>
+      <c r="EV74" s="15"/>
+      <c r="EW74" s="15"/>
+      <c r="EX74" s="15"/>
+      <c r="EY74" s="15"/>
+      <c r="EZ74" s="15"/>
+      <c r="FA74" s="15"/>
+      <c r="FB74" s="15"/>
+      <c r="FC74" s="15"/>
+      <c r="FD74" s="15"/>
+      <c r="FE74" s="15"/>
+      <c r="FF74" s="15"/>
+      <c r="FG74" s="15"/>
+      <c r="FH74" s="15"/>
+      <c r="FI74" s="15"/>
+      <c r="FJ74" s="15"/>
+      <c r="FK74" s="15"/>
+      <c r="FL74" s="15"/>
+      <c r="FM74" s="15"/>
+      <c r="FN74" s="15"/>
+      <c r="FO74" s="15"/>
+      <c r="FP74" s="15"/>
+      <c r="FQ74" s="15"/>
+      <c r="FR74" s="15"/>
+      <c r="FS74" s="15"/>
+      <c r="FT74" s="15"/>
+      <c r="FU74" s="15"/>
+      <c r="FV74" s="15"/>
+      <c r="FW74" s="15"/>
+      <c r="FX74" s="15"/>
+      <c r="FY74" s="15"/>
+      <c r="FZ74" s="15"/>
+      <c r="GA74" s="15"/>
+      <c r="GB74" s="15"/>
+      <c r="GC74" s="15"/>
+      <c r="GD74" s="15"/>
+      <c r="GE74" s="15"/>
+      <c r="GF74" s="15"/>
+      <c r="GG74" s="15"/>
+      <c r="GH74" s="15"/>
+      <c r="GI74" s="15"/>
+      <c r="GJ74" s="15"/>
+      <c r="GK74" s="15"/>
+      <c r="GL74" s="15"/>
+      <c r="GM74" s="15"/>
+      <c r="GN74" s="15"/>
+      <c r="GO74" s="15"/>
+      <c r="GP74" s="15"/>
+      <c r="GQ74" s="15"/>
+      <c r="GR74" s="15"/>
+      <c r="GS74" s="15"/>
+      <c r="GT74" s="15"/>
+      <c r="GU74" s="15"/>
+      <c r="GV74" s="15"/>
+      <c r="GW74" s="15"/>
+      <c r="GX74" s="15"/>
+      <c r="GY74" s="15"/>
+      <c r="GZ74" s="15"/>
+      <c r="HA74" s="15"/>
+      <c r="HB74" s="15"/>
+      <c r="HC74" s="15"/>
+      <c r="HD74" s="15"/>
+      <c r="HE74" s="15"/>
+      <c r="HF74" s="15"/>
+      <c r="HG74" s="15"/>
+      <c r="HH74" s="15"/>
+      <c r="HI74" s="15"/>
+      <c r="HJ74" s="15"/>
+      <c r="HK74" s="15"/>
+      <c r="HL74" s="15"/>
+      <c r="HM74" s="15"/>
+      <c r="HN74" s="15"/>
+      <c r="HO74" s="15"/>
+      <c r="HP74" s="15"/>
+      <c r="HQ74" s="15"/>
+      <c r="HR74" s="15"/>
+      <c r="HS74" s="15"/>
+      <c r="HT74" s="15"/>
+      <c r="HU74" s="15"/>
+      <c r="HV74" s="15"/>
+      <c r="HW74" s="15"/>
+      <c r="HX74" s="15"/>
+      <c r="HY74" s="15"/>
+      <c r="HZ74" s="15"/>
+      <c r="IA74" s="15"/>
+      <c r="IB74" s="15"/>
+      <c r="IC74" s="15"/>
+      <c r="ID74" s="15"/>
+      <c r="IE74" s="15"/>
+      <c r="IF74" s="15"/>
+      <c r="IG74" s="15"/>
+      <c r="IH74" s="15"/>
+      <c r="II74" s="15"/>
+      <c r="IJ74" s="15"/>
+      <c r="IK74" s="15"/>
+      <c r="IL74" s="15"/>
+      <c r="IM74" s="15"/>
+      <c r="IN74" s="15"/>
+      <c r="IO74" s="15"/>
+      <c r="IP74" s="15"/>
+      <c r="IQ74" s="15"/>
+      <c r="IR74" s="15"/>
+      <c r="IS74" s="15"/>
+      <c r="IT74" s="15"/>
+      <c r="IU74" s="15"/>
+      <c r="IV74" s="15"/>
+      <c r="IW74" s="15"/>
+      <c r="IX74" s="15"/>
+      <c r="IY74" s="15"/>
+      <c r="IZ74" s="15"/>
+      <c r="JA74" s="15"/>
+      <c r="JB74" s="15"/>
+      <c r="JC74" s="15"/>
+      <c r="JD74" s="15"/>
+      <c r="JE74" s="15"/>
+      <c r="JF74" s="15"/>
+      <c r="JG74" s="15"/>
+      <c r="JH74" s="15"/>
+      <c r="JI74" s="15"/>
+      <c r="JJ74" s="15"/>
+      <c r="JK74" s="15"/>
+      <c r="JL74" s="15"/>
+      <c r="JM74" s="15"/>
+      <c r="JN74" s="15"/>
+      <c r="JO74" s="15"/>
+      <c r="JP74" s="15"/>
+      <c r="JQ74" s="15"/>
+      <c r="JR74" s="15"/>
+      <c r="JS74" s="15"/>
+      <c r="JT74" s="15"/>
+      <c r="JU74" s="15"/>
+      <c r="JV74" s="15"/>
+      <c r="JW74" s="15"/>
+      <c r="JX74" s="15"/>
+      <c r="JY74" s="15"/>
+      <c r="JZ74" s="15"/>
+      <c r="KA74" s="15"/>
+      <c r="KB74" s="15"/>
+      <c r="KC74" s="15"/>
+      <c r="KD74" s="15"/>
+      <c r="KE74" s="15"/>
+      <c r="KF74" s="15"/>
+      <c r="KG74" s="15"/>
+      <c r="KH74" s="15"/>
+      <c r="KI74" s="15"/>
+      <c r="KJ74" s="15"/>
+      <c r="KK74" s="15"/>
+      <c r="KL74" s="15"/>
+      <c r="KM74" s="15"/>
+      <c r="KN74" s="15"/>
+      <c r="KO74" s="15"/>
+      <c r="KP74" s="15"/>
+      <c r="KQ74" s="15"/>
+      <c r="KR74" s="15"/>
+      <c r="KS74" s="15"/>
+      <c r="KT74" s="15"/>
+      <c r="KU74" s="15"/>
+      <c r="KV74" s="15"/>
+      <c r="KW74" s="15"/>
+      <c r="KX74" s="15"/>
+      <c r="KY74" s="15"/>
+      <c r="KZ74" s="15"/>
+      <c r="LA74" s="15"/>
+      <c r="LB74" s="15"/>
+      <c r="LC74" s="15"/>
+      <c r="LD74" s="15"/>
+      <c r="LE74" s="15"/>
+      <c r="LF74" s="15"/>
+      <c r="LG74" s="15"/>
+      <c r="LH74" s="15"/>
+      <c r="LI74" s="15"/>
+      <c r="LJ74" s="15"/>
+      <c r="LK74" s="15"/>
+      <c r="LL74" s="15"/>
+      <c r="LM74" s="15"/>
+      <c r="LN74" s="15"/>
+      <c r="LO74" s="15"/>
+      <c r="LP74" s="15"/>
+      <c r="LQ74" s="15"/>
+      <c r="LR74" s="15"/>
+      <c r="LS74" s="15"/>
+      <c r="LT74" s="15"/>
+      <c r="LU74" s="15"/>
+      <c r="LV74" s="15"/>
+      <c r="LW74" s="15"/>
+      <c r="LX74" s="15"/>
+      <c r="LY74" s="15"/>
+      <c r="LZ74" s="15"/>
+      <c r="MA74" s="15"/>
+      <c r="MB74" s="15"/>
+      <c r="MC74" s="15"/>
+      <c r="MD74" s="15"/>
+      <c r="ME74" s="15"/>
+      <c r="MF74" s="15"/>
+      <c r="MG74" s="15"/>
+      <c r="MH74" s="15"/>
+      <c r="MI74" s="15"/>
+      <c r="MJ74" s="15"/>
+      <c r="MK74" s="15"/>
+      <c r="ML74" s="15"/>
+      <c r="MM74" s="15"/>
+      <c r="MN74" s="15"/>
+      <c r="MO74" s="15"/>
+      <c r="MP74" s="15"/>
+      <c r="MQ74" s="15"/>
+      <c r="MR74" s="15"/>
+      <c r="MS74" s="15"/>
+      <c r="MT74" s="15"/>
+      <c r="MU74" s="15"/>
+      <c r="MV74" s="15"/>
+      <c r="MW74" s="15"/>
+      <c r="MX74" s="15"/>
+      <c r="MY74" s="15"/>
+      <c r="MZ74" s="15"/>
+      <c r="NA74" s="15"/>
+      <c r="NB74" s="15"/>
+      <c r="NC74" s="15"/>
+      <c r="ND74" s="15"/>
+      <c r="NE74" s="15"/>
+      <c r="NF74" s="15"/>
+      <c r="NG74" s="15"/>
+      <c r="NH74" s="15"/>
+      <c r="NI74" s="15"/>
+      <c r="NJ74" s="15"/>
+      <c r="NK74" s="15"/>
+      <c r="NL74" s="15"/>
+      <c r="NM74" s="15"/>
+      <c r="NN74" s="15"/>
+      <c r="NO74" s="15"/>
+      <c r="NP74" s="15"/>
+      <c r="NQ74" s="15"/>
+      <c r="NR74" s="15"/>
+      <c r="NS74" s="15"/>
+      <c r="NT74" s="15"/>
+      <c r="NU74" s="15"/>
+      <c r="NV74" s="15"/>
+      <c r="NW74" s="15"/>
+      <c r="NX74" s="15"/>
+      <c r="NY74" s="15"/>
+      <c r="NZ74" s="15"/>
+      <c r="OA74" s="15"/>
+      <c r="OB74" s="15"/>
+      <c r="OC74" s="15"/>
+      <c r="OD74" s="15"/>
+      <c r="OE74" s="15"/>
+      <c r="OF74" s="15"/>
+      <c r="OG74" s="15"/>
+      <c r="OH74" s="15"/>
+      <c r="OI74" s="15"/>
+      <c r="OJ74" s="15"/>
+      <c r="OK74" s="15"/>
+      <c r="OL74" s="15"/>
+      <c r="OM74" s="15"/>
+      <c r="ON74" s="15"/>
+      <c r="OO74" s="15"/>
+      <c r="OP74" s="15"/>
+      <c r="OQ74" s="15"/>
+      <c r="OR74" s="15"/>
+      <c r="OS74" s="15"/>
+      <c r="OT74" s="15"/>
+      <c r="OU74" s="15"/>
+      <c r="OV74" s="15"/>
+      <c r="OW74" s="15"/>
+      <c r="OX74" s="15"/>
+      <c r="OY74" s="15"/>
+      <c r="OZ74" s="15"/>
+      <c r="PA74" s="15"/>
+      <c r="PB74" s="15"/>
+      <c r="PC74" s="15"/>
+      <c r="PD74" s="15"/>
+      <c r="PE74" s="15"/>
+      <c r="PF74" s="15"/>
+      <c r="PG74" s="15"/>
+      <c r="PH74" s="15"/>
+      <c r="PI74" s="15"/>
+      <c r="PJ74" s="15"/>
+      <c r="PK74" s="15"/>
+      <c r="PL74" s="15"/>
+      <c r="PM74" s="15"/>
+      <c r="PN74" s="15"/>
+      <c r="PO74" s="15"/>
+      <c r="PP74" s="15"/>
+      <c r="PQ74" s="15"/>
+      <c r="PR74" s="15"/>
+      <c r="PS74" s="15"/>
+      <c r="PT74" s="15"/>
+      <c r="PU74" s="15"/>
+      <c r="PV74" s="15"/>
+      <c r="PW74" s="15"/>
+      <c r="PX74" s="15"/>
+      <c r="PY74" s="15"/>
+      <c r="PZ74" s="15"/>
+      <c r="QA74" s="15"/>
+      <c r="QB74" s="15"/>
+      <c r="QC74" s="15"/>
+      <c r="QD74" s="15"/>
+      <c r="QE74" s="15"/>
+      <c r="QF74" s="15"/>
+      <c r="QG74" s="15"/>
+      <c r="QH74" s="15"/>
+      <c r="QI74" s="15"/>
+      <c r="QJ74" s="15"/>
+      <c r="QK74" s="15"/>
+      <c r="QL74" s="15"/>
+      <c r="QM74" s="15"/>
+      <c r="QN74" s="15"/>
+      <c r="QO74" s="15"/>
+      <c r="QP74" s="15"/>
+      <c r="QQ74" s="15"/>
+      <c r="QR74" s="15"/>
+      <c r="QS74" s="15"/>
+      <c r="QT74" s="15"/>
+      <c r="QU74" s="15"/>
+      <c r="QV74" s="15"/>
+      <c r="QW74" s="15"/>
+      <c r="QX74" s="15"/>
+      <c r="QY74" s="15"/>
+      <c r="QZ74" s="15"/>
+      <c r="RA74" s="15"/>
+      <c r="RB74" s="15"/>
+      <c r="RC74" s="15"/>
+      <c r="RD74" s="15"/>
+      <c r="RE74" s="15"/>
+      <c r="RF74" s="15"/>
+      <c r="RG74" s="15"/>
+      <c r="RH74" s="15"/>
+      <c r="RI74" s="15"/>
+      <c r="RJ74" s="15"/>
+      <c r="RK74" s="15"/>
+      <c r="RL74" s="15"/>
+      <c r="RM74" s="15"/>
+      <c r="RN74" s="15"/>
+      <c r="RO74" s="15"/>
+      <c r="RP74" s="15"/>
+      <c r="RQ74" s="15"/>
+      <c r="RR74" s="15"/>
+      <c r="RS74" s="15"/>
+      <c r="RT74" s="15"/>
+      <c r="RU74" s="15"/>
+      <c r="RV74" s="15"/>
+      <c r="RW74" s="15"/>
+      <c r="RX74" s="15"/>
+      <c r="RY74" s="15"/>
+      <c r="RZ74" s="15"/>
+      <c r="SA74" s="15"/>
+      <c r="SB74" s="15"/>
+      <c r="SC74" s="15"/>
+      <c r="SD74" s="15"/>
+      <c r="SE74" s="15"/>
+      <c r="SF74" s="15"/>
+      <c r="SG74" s="15"/>
+      <c r="SH74" s="15"/>
+      <c r="SI74" s="15"/>
+      <c r="SJ74" s="15"/>
+      <c r="SK74" s="15"/>
+      <c r="SL74" s="15"/>
+      <c r="SM74" s="15"/>
+      <c r="SN74" s="15"/>
+      <c r="SO74" s="15"/>
+      <c r="SP74" s="15"/>
+      <c r="SQ74" s="15"/>
+      <c r="SR74" s="15"/>
+      <c r="SS74" s="15"/>
+      <c r="ST74" s="15"/>
+      <c r="SU74" s="15"/>
+      <c r="SV74" s="15"/>
+      <c r="SW74" s="15"/>
+      <c r="SX74" s="15"/>
+      <c r="SY74" s="15"/>
+      <c r="SZ74" s="15"/>
+      <c r="TA74" s="15"/>
+      <c r="TB74" s="15"/>
+      <c r="TC74" s="15"/>
+      <c r="TD74" s="15"/>
+      <c r="TE74" s="15"/>
+      <c r="TF74" s="15"/>
+      <c r="TG74" s="15"/>
+      <c r="TH74" s="15"/>
+      <c r="TI74" s="15"/>
+      <c r="TJ74" s="15"/>
+      <c r="TK74" s="15"/>
+      <c r="TL74" s="15"/>
+      <c r="TM74" s="15"/>
+      <c r="TN74" s="15"/>
+      <c r="TO74" s="15"/>
+      <c r="TP74" s="15"/>
+      <c r="TQ74" s="15"/>
+      <c r="TR74" s="15"/>
+      <c r="TS74" s="15"/>
+      <c r="TT74" s="15"/>
+      <c r="TU74" s="15"/>
+      <c r="TV74" s="15"/>
+      <c r="TW74" s="15"/>
+      <c r="TX74" s="15"/>
+      <c r="TY74" s="15"/>
+      <c r="TZ74" s="15"/>
+      <c r="UA74" s="15"/>
+      <c r="UB74" s="15"/>
+      <c r="UC74" s="15"/>
+      <c r="UD74" s="15"/>
+      <c r="UE74" s="15"/>
+      <c r="UF74" s="15"/>
+      <c r="UG74" s="15"/>
+      <c r="UH74" s="15"/>
+      <c r="UI74" s="15"/>
+      <c r="UJ74" s="15"/>
+      <c r="UK74" s="15"/>
+      <c r="UL74" s="15"/>
+      <c r="UM74" s="15"/>
+      <c r="UN74" s="15"/>
+      <c r="UO74" s="15"/>
+      <c r="UP74" s="15"/>
+      <c r="UQ74" s="15"/>
+      <c r="UR74" s="15"/>
+      <c r="US74" s="15"/>
+      <c r="UT74" s="15"/>
+      <c r="UU74" s="15"/>
+      <c r="UV74" s="15"/>
+      <c r="UW74" s="15"/>
+      <c r="UX74" s="15"/>
+      <c r="UY74" s="15"/>
+      <c r="UZ74" s="15"/>
+      <c r="VA74" s="15"/>
+      <c r="VB74" s="15"/>
+      <c r="VC74" s="15"/>
+      <c r="VD74" s="15"/>
+      <c r="VE74" s="15"/>
+      <c r="VF74" s="15"/>
+      <c r="VG74" s="15"/>
+      <c r="VH74" s="15"/>
+      <c r="VI74" s="15"/>
+      <c r="VJ74" s="15"/>
+      <c r="VK74" s="15"/>
+      <c r="VL74" s="15"/>
+      <c r="VM74" s="15"/>
+      <c r="VN74" s="15"/>
+      <c r="VO74" s="15"/>
+      <c r="VP74" s="15"/>
+      <c r="VQ74" s="15"/>
+      <c r="VR74" s="15"/>
+      <c r="VS74" s="15"/>
+      <c r="VT74" s="15"/>
+      <c r="VU74" s="15"/>
+      <c r="VV74" s="15"/>
+      <c r="VW74" s="15"/>
+      <c r="VX74" s="15"/>
+      <c r="VY74" s="15"/>
+      <c r="VZ74" s="15"/>
+      <c r="WA74" s="15"/>
+      <c r="WB74" s="15"/>
+      <c r="WC74" s="15"/>
+      <c r="WD74" s="15"/>
+      <c r="WE74" s="15"/>
+      <c r="WF74" s="15"/>
+      <c r="WG74" s="15"/>
+      <c r="WH74" s="15"/>
+      <c r="WI74" s="15"/>
+      <c r="WJ74" s="15"/>
+      <c r="WK74" s="15"/>
+      <c r="WL74" s="15"/>
+      <c r="WM74" s="15"/>
+      <c r="WN74" s="15"/>
+      <c r="WO74" s="15"/>
+      <c r="WP74" s="15"/>
+      <c r="WQ74" s="15"/>
+      <c r="WR74" s="15"/>
+      <c r="WS74" s="15"/>
+      <c r="WT74" s="15"/>
+      <c r="WU74" s="15"/>
+      <c r="WV74" s="15"/>
+      <c r="WW74" s="15"/>
+      <c r="WX74" s="15"/>
+      <c r="WY74" s="15"/>
+      <c r="WZ74" s="15"/>
+      <c r="XA74" s="15"/>
+      <c r="XB74" s="15"/>
+      <c r="XC74" s="15"/>
+      <c r="XD74" s="15"/>
+      <c r="XE74" s="15"/>
+      <c r="XF74" s="15"/>
+      <c r="XG74" s="15"/>
+      <c r="XH74" s="15"/>
+      <c r="XI74" s="15"/>
+      <c r="XJ74" s="15"/>
+      <c r="XK74" s="15"/>
+      <c r="XL74" s="15"/>
+      <c r="XM74" s="15"/>
+      <c r="XN74" s="15"/>
+      <c r="XO74" s="15"/>
+      <c r="XP74" s="15"/>
+      <c r="XQ74" s="15"/>
+      <c r="XR74" s="15"/>
+      <c r="XS74" s="15"/>
+      <c r="XT74" s="15"/>
+      <c r="XU74" s="15"/>
+      <c r="XV74" s="15"/>
+      <c r="XW74" s="15"/>
+      <c r="XX74" s="15"/>
+      <c r="XY74" s="15"/>
+      <c r="XZ74" s="15"/>
+      <c r="YA74" s="15"/>
+      <c r="YB74" s="15"/>
+      <c r="YC74" s="15"/>
+      <c r="YD74" s="15"/>
+      <c r="YE74" s="15"/>
+      <c r="YF74" s="15"/>
+      <c r="YG74" s="15"/>
+      <c r="YH74" s="15"/>
+      <c r="YI74" s="15"/>
+      <c r="YJ74" s="15"/>
+      <c r="YK74" s="15"/>
+      <c r="YL74" s="15"/>
+      <c r="YM74" s="15"/>
+      <c r="YN74" s="15"/>
+      <c r="YO74" s="15"/>
+      <c r="YP74" s="15"/>
+      <c r="YQ74" s="15"/>
+      <c r="YR74" s="15"/>
+      <c r="YS74" s="15"/>
+      <c r="YT74" s="15"/>
+      <c r="YU74" s="15"/>
+      <c r="YV74" s="15"/>
+      <c r="YW74" s="15"/>
+      <c r="YX74" s="15"/>
+      <c r="YY74" s="15"/>
+      <c r="YZ74" s="15"/>
+      <c r="ZA74" s="15"/>
+      <c r="ZB74" s="15"/>
+      <c r="ZC74" s="15"/>
+      <c r="ZD74" s="15"/>
+      <c r="ZE74" s="15"/>
+      <c r="ZF74" s="15"/>
+      <c r="ZG74" s="15"/>
+      <c r="ZH74" s="15"/>
+      <c r="ZI74" s="15"/>
+      <c r="ZJ74" s="15"/>
+      <c r="ZK74" s="15"/>
+      <c r="ZL74" s="15"/>
+      <c r="ZM74" s="15"/>
+      <c r="ZN74" s="15"/>
+      <c r="ZO74" s="15"/>
+      <c r="ZP74" s="15"/>
+      <c r="ZQ74" s="15"/>
+      <c r="ZR74" s="15"/>
+      <c r="ZS74" s="15"/>
+      <c r="ZT74" s="15"/>
+      <c r="ZU74" s="15"/>
+      <c r="ZV74" s="15"/>
+      <c r="ZW74" s="15"/>
+      <c r="ZX74" s="15"/>
+      <c r="ZY74" s="15"/>
+      <c r="ZZ74" s="15"/>
+      <c r="AAA74" s="15"/>
+      <c r="AAB74" s="15"/>
+      <c r="AAC74" s="15"/>
+      <c r="AAD74" s="15"/>
+      <c r="AAE74" s="15"/>
+      <c r="AAF74" s="15"/>
+      <c r="AAG74" s="15"/>
+      <c r="AAH74" s="15"/>
+      <c r="AAI74" s="15"/>
+      <c r="AAJ74" s="15"/>
+      <c r="AAK74" s="15"/>
+      <c r="AAL74" s="15"/>
+      <c r="AAM74" s="15"/>
+      <c r="AAN74" s="15"/>
+      <c r="AAO74" s="15"/>
+      <c r="AAP74" s="15"/>
+      <c r="AAQ74" s="15"/>
+      <c r="AAR74" s="15"/>
+      <c r="AAS74" s="15"/>
+      <c r="AAT74" s="15"/>
+      <c r="AAU74" s="15"/>
+      <c r="AAV74" s="15"/>
+      <c r="AAW74" s="15"/>
+      <c r="AAX74" s="15"/>
+      <c r="AAY74" s="15"/>
+      <c r="AAZ74" s="15"/>
+      <c r="ABA74" s="15"/>
+      <c r="ABB74" s="15"/>
+      <c r="ABC74" s="15"/>
+      <c r="ABD74" s="15"/>
+      <c r="ABE74" s="15"/>
+      <c r="ABF74" s="15"/>
+      <c r="ABG74" s="15"/>
+      <c r="ABH74" s="15"/>
+      <c r="ABI74" s="15"/>
+      <c r="ABJ74" s="15"/>
+      <c r="ABK74" s="15"/>
+      <c r="ABL74" s="15"/>
+      <c r="ABM74" s="15"/>
+      <c r="ABN74" s="15"/>
+      <c r="ABO74" s="15"/>
+      <c r="ABP74" s="15"/>
+      <c r="ABQ74" s="15"/>
+      <c r="ABR74" s="15"/>
+      <c r="ABS74" s="15"/>
+      <c r="ABT74" s="15"/>
+      <c r="ABU74" s="15"/>
+      <c r="ABV74" s="15"/>
+      <c r="ABW74" s="15"/>
+      <c r="ABX74" s="15"/>
+      <c r="ABY74" s="15"/>
+      <c r="ABZ74" s="15"/>
+      <c r="ACA74" s="15"/>
+      <c r="ACB74" s="15"/>
+      <c r="ACC74" s="15"/>
+      <c r="ACD74" s="15"/>
+      <c r="ACE74" s="15"/>
+      <c r="ACF74" s="15"/>
+      <c r="ACG74" s="15"/>
+      <c r="ACH74" s="15"/>
+      <c r="ACI74" s="15"/>
+      <c r="ACJ74" s="15"/>
+      <c r="ACK74" s="15"/>
+      <c r="ACL74" s="15"/>
+      <c r="ACM74" s="15"/>
+      <c r="ACN74" s="15"/>
+      <c r="ACO74" s="15"/>
+      <c r="ACP74" s="15"/>
+      <c r="ACQ74" s="15"/>
+      <c r="ACR74" s="15"/>
+      <c r="ACS74" s="15"/>
+      <c r="ACT74" s="15"/>
+      <c r="ACU74" s="15"/>
+      <c r="ACV74" s="15"/>
+      <c r="ACW74" s="15"/>
+      <c r="ACX74" s="15"/>
+      <c r="ACY74" s="15"/>
+      <c r="ACZ74" s="15"/>
+      <c r="ADA74" s="15"/>
+      <c r="ADB74" s="15"/>
+      <c r="ADC74" s="15"/>
+      <c r="ADD74" s="15"/>
+      <c r="ADE74" s="15"/>
+      <c r="ADF74" s="15"/>
+      <c r="ADG74" s="15"/>
+      <c r="ADH74" s="15"/>
+      <c r="ADI74" s="15"/>
+      <c r="ADJ74" s="15"/>
+      <c r="ADK74" s="15"/>
+      <c r="ADL74" s="15"/>
+      <c r="ADM74" s="15"/>
+      <c r="ADN74" s="15"/>
+      <c r="ADO74" s="15"/>
+      <c r="ADP74" s="15"/>
+      <c r="ADQ74" s="15"/>
+      <c r="ADR74" s="15"/>
+      <c r="ADS74" s="15"/>
+      <c r="ADT74" s="15"/>
+      <c r="ADU74" s="15"/>
+      <c r="ADV74" s="15"/>
+      <c r="ADW74" s="15"/>
+      <c r="ADX74" s="15"/>
+      <c r="ADY74" s="15"/>
+      <c r="ADZ74" s="15"/>
+      <c r="AEA74" s="15"/>
+      <c r="AEB74" s="15"/>
+      <c r="AEC74" s="15"/>
+      <c r="AED74" s="15"/>
+      <c r="AEE74" s="15"/>
+      <c r="AEF74" s="15"/>
+      <c r="AEG74" s="15"/>
+      <c r="AEH74" s="15"/>
+      <c r="AEI74" s="15"/>
+      <c r="AEJ74" s="15"/>
+      <c r="AEK74" s="15"/>
+      <c r="AEL74" s="15"/>
+      <c r="AEM74" s="15"/>
+      <c r="AEN74" s="15"/>
+      <c r="AEO74" s="15"/>
+      <c r="AEP74" s="15"/>
+      <c r="AEQ74" s="15"/>
+      <c r="AER74" s="15"/>
+      <c r="AES74" s="15"/>
+      <c r="AET74" s="15"/>
+      <c r="AEU74" s="15"/>
+      <c r="AEV74" s="15"/>
+      <c r="AEW74" s="15"/>
+      <c r="AEX74" s="15"/>
+      <c r="AEY74" s="15"/>
+      <c r="AEZ74" s="15"/>
+      <c r="AFA74" s="15"/>
+      <c r="AFB74" s="15"/>
+      <c r="AFC74" s="15"/>
+      <c r="AFD74" s="15"/>
+      <c r="AFE74" s="15"/>
+      <c r="AFF74" s="15"/>
+      <c r="AFG74" s="15"/>
+      <c r="AFH74" s="15"/>
+      <c r="AFI74" s="15"/>
+      <c r="AFJ74" s="15"/>
+      <c r="AFK74" s="15"/>
+      <c r="AFL74" s="15"/>
+      <c r="AFM74" s="15"/>
+      <c r="AFN74" s="15"/>
+      <c r="AFO74" s="15"/>
+      <c r="AFP74" s="15"/>
+      <c r="AFQ74" s="15"/>
+      <c r="AFR74" s="15"/>
+      <c r="AFS74" s="15"/>
+      <c r="AFT74" s="15"/>
+      <c r="AFU74" s="15"/>
+      <c r="AFV74" s="15"/>
+      <c r="AFW74" s="15"/>
+      <c r="AFX74" s="15"/>
+      <c r="AFY74" s="15"/>
+      <c r="AFZ74" s="15"/>
+      <c r="AGA74" s="15"/>
+      <c r="AGB74" s="15"/>
+      <c r="AGC74" s="15"/>
+      <c r="AGD74" s="15"/>
+      <c r="AGE74" s="15"/>
+      <c r="AGF74" s="15"/>
+      <c r="AGG74" s="15"/>
+      <c r="AGH74" s="15"/>
+      <c r="AGI74" s="15"/>
+      <c r="AGJ74" s="15"/>
+      <c r="AGK74" s="15"/>
+      <c r="AGL74" s="15"/>
+      <c r="AGM74" s="15"/>
+      <c r="AGN74" s="15"/>
+      <c r="AGO74" s="15"/>
+      <c r="AGP74" s="15"/>
+      <c r="AGQ74" s="15"/>
+      <c r="AGR74" s="15"/>
+      <c r="AGS74" s="15"/>
+      <c r="AGT74" s="15"/>
+      <c r="AGU74" s="15"/>
+      <c r="AGV74" s="15"/>
+      <c r="AGW74" s="15"/>
+      <c r="AGX74" s="15"/>
+      <c r="AGY74" s="15"/>
+      <c r="AGZ74" s="15"/>
+      <c r="AHA74" s="15"/>
+      <c r="AHB74" s="15"/>
+      <c r="AHC74" s="15"/>
+      <c r="AHD74" s="15"/>
+      <c r="AHE74" s="15"/>
+      <c r="AHF74" s="15"/>
+      <c r="AHG74" s="15"/>
+      <c r="AHH74" s="15"/>
+      <c r="AHI74" s="15"/>
+      <c r="AHJ74" s="15"/>
+      <c r="AHK74" s="15"/>
+      <c r="AHL74" s="15"/>
+      <c r="AHM74" s="15"/>
+      <c r="AHN74" s="15"/>
+      <c r="AHO74" s="15"/>
+      <c r="AHP74" s="15"/>
+      <c r="AHQ74" s="15"/>
+      <c r="AHR74" s="15"/>
+      <c r="AHS74" s="15"/>
+      <c r="AHT74" s="15"/>
+      <c r="AHU74" s="15"/>
+      <c r="AHV74" s="15"/>
+      <c r="AHW74" s="15"/>
+      <c r="AHX74" s="15"/>
+      <c r="AHY74" s="15"/>
+      <c r="AHZ74" s="15"/>
+      <c r="AIA74" s="15"/>
+      <c r="AIB74" s="15"/>
+      <c r="AIC74" s="15"/>
+      <c r="AID74" s="15"/>
+      <c r="AIE74" s="15"/>
+      <c r="AIF74" s="15"/>
+      <c r="AIG74" s="15"/>
+      <c r="AIH74" s="15"/>
+      <c r="AII74" s="15"/>
+      <c r="AIJ74" s="15"/>
+      <c r="AIK74" s="15"/>
+      <c r="AIL74" s="15"/>
+      <c r="AIM74" s="15"/>
+      <c r="AIN74" s="15"/>
+      <c r="AIO74" s="15"/>
+      <c r="AIP74" s="15"/>
+      <c r="AIQ74" s="15"/>
+      <c r="AIR74" s="15"/>
+      <c r="AIS74" s="15"/>
+      <c r="AIT74" s="15"/>
+      <c r="AIU74" s="15"/>
+      <c r="AIV74" s="15"/>
+      <c r="AIW74" s="15"/>
+      <c r="AIX74" s="15"/>
+      <c r="AIY74" s="15"/>
+      <c r="AIZ74" s="15"/>
+      <c r="AJA74" s="15"/>
+      <c r="AJB74" s="15"/>
+      <c r="AJC74" s="15"/>
+      <c r="AJD74" s="15"/>
+      <c r="AJE74" s="15"/>
+      <c r="AJF74" s="15"/>
+      <c r="AJG74" s="15"/>
+      <c r="AJH74" s="15"/>
+      <c r="AJI74" s="15"/>
+      <c r="AJJ74" s="15"/>
+      <c r="AJK74" s="15"/>
+      <c r="AJL74" s="15"/>
+      <c r="AJM74" s="15"/>
+      <c r="AJN74" s="15"/>
+      <c r="AJO74" s="15"/>
+      <c r="AJP74" s="15"/>
+      <c r="AJQ74" s="15"/>
+      <c r="AJR74" s="15"/>
+      <c r="AJS74" s="15"/>
+      <c r="AJT74" s="15"/>
+      <c r="AJU74" s="15"/>
+      <c r="AJV74" s="15"/>
+      <c r="AJW74" s="15"/>
+      <c r="AJX74" s="15"/>
+      <c r="AJY74" s="15"/>
+      <c r="AJZ74" s="15"/>
+      <c r="AKA74" s="15"/>
+      <c r="AKB74" s="15"/>
+      <c r="AKC74" s="15"/>
+      <c r="AKD74" s="15"/>
+      <c r="AKE74" s="15"/>
+      <c r="AKF74" s="15"/>
+      <c r="AKG74" s="15"/>
+      <c r="AKH74" s="15"/>
+      <c r="AKI74" s="15"/>
+      <c r="AKJ74" s="15"/>
+      <c r="AKK74" s="15"/>
+      <c r="AKL74" s="15"/>
+      <c r="AKM74" s="15"/>
+      <c r="AKN74" s="15"/>
+      <c r="AKO74" s="15"/>
+      <c r="AKP74" s="15"/>
+      <c r="AKQ74" s="15"/>
+      <c r="AKR74" s="15"/>
+      <c r="AKS74" s="15"/>
+      <c r="AKT74" s="15"/>
+      <c r="AKU74" s="15"/>
+      <c r="AKV74" s="15"/>
+      <c r="AKW74" s="15"/>
+      <c r="AKX74" s="15"/>
+      <c r="AKY74" s="15"/>
+      <c r="AKZ74" s="15"/>
+      <c r="ALA74" s="15"/>
+      <c r="ALB74" s="15"/>
+      <c r="ALC74" s="15"/>
+      <c r="ALD74" s="15"/>
+      <c r="ALE74" s="15"/>
+      <c r="ALF74" s="15"/>
+      <c r="ALG74" s="15"/>
+      <c r="ALH74" s="15"/>
+      <c r="ALI74" s="15"/>
+      <c r="ALJ74" s="15"/>
+      <c r="ALK74" s="15"/>
+      <c r="ALL74" s="15"/>
+      <c r="ALM74" s="15"/>
+      <c r="ALN74" s="15"/>
+      <c r="ALO74" s="15"/>
+      <c r="ALP74" s="15"/>
+      <c r="ALQ74" s="15"/>
+      <c r="ALR74" s="15"/>
+      <c r="ALS74" s="15"/>
+      <c r="ALT74" s="15"/>
+      <c r="ALU74" s="15"/>
+      <c r="ALV74" s="15"/>
+      <c r="ALW74" s="15"/>
+      <c r="ALX74" s="15"/>
+      <c r="ALY74" s="15"/>
+      <c r="ALZ74" s="15"/>
+      <c r="AMA74" s="15"/>
+      <c r="AMB74" s="15"/>
+      <c r="AMC74" s="15"/>
+      <c r="AMD74" s="15"/>
+      <c r="AME74" s="15"/>
+      <c r="AMF74" s="15"/>
+      <c r="AMG74" s="15"/>
+      <c r="AMH74" s="15"/>
+      <c r="AMI74" s="15"/>
+      <c r="AMJ74" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q67" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <autoFilter ref="A1:Q72">
+    <extLst/>
+  </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E22">
       <formula1>"aarch64,x86_64"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q19" r:id="rId1" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-24.03-LTS/contrib/drivers/x86_64/Packages/cuda_12.4.1_550.54.15_linux.run" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Q22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Q29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q30" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="Q35" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q19" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-24.03-LTS/contrib/drivers/x86_64/Packages/cuda_12.4.1_550.54.15_linux.run" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-24.03-LTS/contrib/drivers/x86_64/Packages/cuda_12.4.1_550.54.15_linux.run"/>
+    <hyperlink ref="Q22" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-24.03-LTS/contrib/drivers/x86_64/Packages/cuda_12.4.1_550.54.15_linux.run"/>
+    <hyperlink ref="Q29" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-24.03-LTS/contrib/drivers/source/Packages/ice-1.13.7.tar.gz"/>
+    <hyperlink ref="Q30" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-24.03-LTS/contrib/drivers/source/Packages/ice-1.13.7.tar.gz"/>
+    <hyperlink ref="Q35" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-24.03-LTS/contrib/drivers/x86_64/Packages/cuda_12.4.1_550.54.15_linux.run"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
@@ -16722,40 +19392,40 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>222</v>
       </c>
@@ -16763,50 +19433,49 @@
         <v>37</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="0.984251968503937" bottom="0.984251968503937" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;F&amp;R文档密级</oddHeader>
     <oddFooter>&amp;L&amp;D&amp;C华为保密信息,未经授权禁止扩散&amp;R第&amp;P页，共&amp;N页</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawingHF r:id="rId1"/>
 </worksheet>
 </file>